--- a/INTLINE/data/134/DEUSTATIS/old/National accounts - saving of households quarters.xlsx
+++ b/INTLINE/data/134/DEUSTATIS/old/National accounts - saving of households quarters.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="65">
   <si>
     <t>National accounts - Disposable income, saving of households:
 Germany, quarters, original and adjusted data</t>
@@ -144,9 +144,6 @@
     <t>EUR bn</t>
   </si>
   <si>
-    <t>...</t>
-  </si>
-  <si>
     <t xml:space="preserve"> - Employers' social contributions</t>
   </si>
   <si>
@@ -210,7 +207,7 @@
     <t>Including non-profit institutions serving households.</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2021 | created: 2021-12-28 / 09:48:52</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-04-01 / 03:18:08</t>
   </si>
 </sst>
 </file>
@@ -3838,21 +3835,21 @@
         <v>509.068</v>
       </c>
       <c r="DS7" t="n" s="11">
-        <v>445.246</v>
+        <v>445.275</v>
       </c>
       <c r="DT7" t="n" s="11">
-        <v>463.051</v>
+        <v>463.183</v>
       </c>
       <c r="DU7" t="n" s="11">
-        <v>476.611</v>
-      </c>
-      <c r="DV7" t="s" s="11">
-        <v>43</v>
+        <v>479.113</v>
+      </c>
+      <c r="DV7" t="n" s="11">
+        <v>532.842</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="10">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s" s="14">
         <v>42</v>
@@ -4218,21 +4215,21 @@
         <v>91.154</v>
       </c>
       <c r="DS8" t="n" s="11">
-        <v>83.273</v>
+        <v>83.256</v>
       </c>
       <c r="DT8" t="n" s="11">
-        <v>85.976</v>
+        <v>85.955</v>
       </c>
       <c r="DU8" t="n" s="11">
-        <v>85.291</v>
-      </c>
-      <c r="DV8" t="s" s="11">
-        <v>43</v>
+        <v>85.52</v>
+      </c>
+      <c r="DV8" t="n" s="11">
+        <v>94.508</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="10">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s" s="14">
         <v>42</v>
@@ -4598,21 +4595,21 @@
         <v>417.914</v>
       </c>
       <c r="DS9" t="n" s="11">
-        <v>361.973</v>
+        <v>362.019</v>
       </c>
       <c r="DT9" t="n" s="11">
-        <v>377.075</v>
+        <v>377.228</v>
       </c>
       <c r="DU9" t="n" s="11">
-        <v>391.32</v>
-      </c>
-      <c r="DV9" t="s" s="11">
-        <v>43</v>
+        <v>393.593</v>
+      </c>
+      <c r="DV9" t="n" s="11">
+        <v>438.334</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="10">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s" s="14">
         <v>42</v>
@@ -4978,21 +4975,21 @@
         <v>135.859</v>
       </c>
       <c r="DS10" t="n" s="11">
-        <v>116.923</v>
+        <v>116.939</v>
       </c>
       <c r="DT10" t="n" s="11">
-        <v>126.239</v>
+        <v>126.265</v>
       </c>
       <c r="DU10" t="n" s="11">
-        <v>121.254</v>
-      </c>
-      <c r="DV10" t="s" s="11">
-        <v>43</v>
+        <v>121.457</v>
+      </c>
+      <c r="DV10" t="n" s="11">
+        <v>142.302</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="10">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B11" t="s" s="14">
         <v>42</v>
@@ -5358,21 +5355,21 @@
         <v>282.055</v>
       </c>
       <c r="DS11" t="n" s="11">
-        <v>245.05</v>
+        <v>245.08</v>
       </c>
       <c r="DT11" t="n" s="11">
-        <v>250.836</v>
+        <v>250.963</v>
       </c>
       <c r="DU11" t="n" s="11">
-        <v>270.066</v>
-      </c>
-      <c r="DV11" t="s" s="11">
-        <v>43</v>
+        <v>272.136</v>
+      </c>
+      <c r="DV11" t="n" s="11">
+        <v>296.032</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="10">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s" s="14">
         <v>42</v>
@@ -5738,21 +5735,21 @@
         <v>166.815</v>
       </c>
       <c r="DS12" t="n" s="11">
-        <v>172.505</v>
+        <v>172.229</v>
       </c>
       <c r="DT12" t="n" s="11">
-        <v>170.252</v>
+        <v>170.014</v>
       </c>
       <c r="DU12" t="n" s="11">
-        <v>166.491</v>
-      </c>
-      <c r="DV12" t="s" s="11">
-        <v>43</v>
+        <v>166.138</v>
+      </c>
+      <c r="DV12" t="n" s="11">
+        <v>165.597</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="10">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B13" t="s" s="14">
         <v>42</v>
@@ -6118,21 +6115,21 @@
         <v>35.533</v>
       </c>
       <c r="DS13" t="n" s="11">
-        <v>35.706</v>
+        <v>35.691</v>
       </c>
       <c r="DT13" t="n" s="11">
-        <v>35.646</v>
+        <v>35.614</v>
       </c>
       <c r="DU13" t="n" s="11">
-        <v>35.409</v>
-      </c>
-      <c r="DV13" t="s" s="11">
-        <v>43</v>
+        <v>35.324</v>
+      </c>
+      <c r="DV13" t="n" s="11">
+        <v>35.828</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="10">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B14" t="s" s="14">
         <v>42</v>
@@ -6498,21 +6495,21 @@
         <v>413.337</v>
       </c>
       <c r="DS14" t="n" s="11">
-        <v>381.849</v>
+        <v>381.618</v>
       </c>
       <c r="DT14" t="n" s="11">
-        <v>385.442</v>
+        <v>385.363</v>
       </c>
       <c r="DU14" t="n" s="11">
-        <v>401.148</v>
-      </c>
-      <c r="DV14" t="s" s="11">
-        <v>43</v>
+        <v>402.95</v>
+      </c>
+      <c r="DV14" t="n" s="11">
+        <v>425.801</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="10">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B15" t="s" s="14">
         <v>42</v>
@@ -6878,21 +6875,21 @@
         <v>110.085</v>
       </c>
       <c r="DS15" t="n" s="11">
-        <v>148.464</v>
+        <v>148.807</v>
       </c>
       <c r="DT15" t="n" s="11">
-        <v>130.37</v>
+        <v>130.319</v>
       </c>
       <c r="DU15" t="n" s="11">
-        <v>135.17</v>
-      </c>
-      <c r="DV15" t="s" s="11">
-        <v>43</v>
+        <v>130.406</v>
+      </c>
+      <c r="DV15" t="n" s="11">
+        <v>119.219</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="10">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B16" t="s" s="14">
         <v>42</v>
@@ -7258,21 +7255,21 @@
         <v>-24.645</v>
       </c>
       <c r="DS16" t="n" s="11">
-        <v>-27.73</v>
+        <v>-27.741</v>
       </c>
       <c r="DT16" t="n" s="11">
-        <v>-20.75</v>
+        <v>-20.776</v>
       </c>
       <c r="DU16" t="n" s="11">
-        <v>-29.488</v>
-      </c>
-      <c r="DV16" t="s" s="11">
-        <v>43</v>
+        <v>-29.142</v>
+      </c>
+      <c r="DV16" t="n" s="11">
+        <v>-33.56</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="10">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B17" t="s" s="14">
         <v>42</v>
@@ -7638,21 +7635,21 @@
         <v>498.777</v>
       </c>
       <c r="DS17" t="n" s="11">
-        <v>502.583</v>
+        <v>502.684</v>
       </c>
       <c r="DT17" t="n" s="11">
-        <v>495.062</v>
+        <v>494.906</v>
       </c>
       <c r="DU17" t="n" s="11">
-        <v>506.83</v>
-      </c>
-      <c r="DV17" t="s" s="11">
-        <v>43</v>
+        <v>504.214</v>
+      </c>
+      <c r="DV17" t="n" s="11">
+        <v>511.46</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="10">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B18" t="s" s="14">
         <v>42</v>
@@ -8018,21 +8015,21 @@
         <v>624.845</v>
       </c>
       <c r="DS18" t="n" s="11">
-        <v>621.835</v>
+        <v>623.733</v>
       </c>
       <c r="DT18" t="n" s="11">
-        <v>618.503</v>
+        <v>622.207</v>
       </c>
       <c r="DU18" t="n" s="11">
-        <v>632.46</v>
-      </c>
-      <c r="DV18" t="s" s="11">
-        <v>43</v>
+        <v>633.886</v>
+      </c>
+      <c r="DV18" t="n" s="11">
+        <v>649.722</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="10">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B19" t="s" s="14">
         <v>42</v>
@@ -8398,21 +8395,21 @@
         <v>16.087</v>
       </c>
       <c r="DS19" t="n" s="11">
-        <v>14.644</v>
+        <v>14.646</v>
       </c>
       <c r="DT19" t="n" s="11">
-        <v>14.872</v>
+        <v>14.873</v>
       </c>
       <c r="DU19" t="n" s="11">
-        <v>14.961</v>
-      </c>
-      <c r="DV19" t="s" s="11">
-        <v>43</v>
+        <v>14.945</v>
+      </c>
+      <c r="DV19" t="n" s="11">
+        <v>16.317</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="10">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B20" t="s" s="14">
         <v>42</v>
@@ -8778,21 +8775,21 @@
         <v>78.935</v>
       </c>
       <c r="DS20" t="n" s="11">
-        <v>113.869</v>
+        <v>113.854</v>
       </c>
       <c r="DT20" t="n" s="11">
-        <v>82.984</v>
+        <v>82.872</v>
       </c>
       <c r="DU20" t="n" s="11">
-        <v>56.043</v>
-      </c>
-      <c r="DV20" t="s" s="11">
-        <v>43</v>
+        <v>53.963</v>
+      </c>
+      <c r="DV20" t="n" s="11">
+        <v>60.37</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="10">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B21" t="s" s="14">
         <v>42</v>
@@ -9158,24 +9155,24 @@
         <v>514.864</v>
       </c>
       <c r="DS21" t="n" s="11">
-        <v>517.227</v>
+        <v>517.33</v>
       </c>
       <c r="DT21" t="n" s="11">
-        <v>509.934</v>
+        <v>509.779</v>
       </c>
       <c r="DU21" t="n" s="11">
-        <v>521.791</v>
-      </c>
-      <c r="DV21" t="s" s="11">
-        <v>43</v>
+        <v>519.159</v>
+      </c>
+      <c r="DV21" t="n" s="11">
+        <v>527.777</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="10">
+        <v>57</v>
+      </c>
+      <c r="B22" t="s" s="14">
         <v>58</v>
-      </c>
-      <c r="B22" t="s" s="14">
-        <v>59</v>
       </c>
       <c r="C22" t="n" s="11">
         <v>16.3</v>
@@ -9544,15 +9541,15 @@
         <v>16.3</v>
       </c>
       <c r="DU22" t="n" s="11">
-        <v>10.7</v>
-      </c>
-      <c r="DV22" t="s" s="11">
-        <v>43</v>
+        <v>10.4</v>
+      </c>
+      <c r="DV22" t="n" s="11">
+        <v>11.4</v>
       </c>
     </row>
     <row r="23" ht="33.75" customHeight="true">
       <c r="A23" t="s" s="15">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24">
@@ -9563,761 +9560,761 @@
         <v>42</v>
       </c>
       <c r="C24" t="n" s="11">
-        <v>205.854</v>
+        <v>205.893</v>
       </c>
       <c r="D24" t="n" s="11">
-        <v>214.861</v>
+        <v>214.81</v>
       </c>
       <c r="E24" t="n" s="11">
-        <v>215.966</v>
+        <v>215.949</v>
       </c>
       <c r="F24" t="n" s="11">
-        <v>219.128</v>
+        <v>219.158</v>
       </c>
       <c r="G24" t="n" s="11">
-        <v>225.495</v>
+        <v>225.53</v>
       </c>
       <c r="H24" t="n" s="11">
-        <v>229.924</v>
+        <v>229.877</v>
       </c>
       <c r="I24" t="n" s="11">
-        <v>236.977</v>
+        <v>236.961</v>
       </c>
       <c r="J24" t="n" s="11">
-        <v>235.338</v>
+        <v>235.367</v>
       </c>
       <c r="K24" t="n" s="11">
-        <v>233.769</v>
+        <v>233.799</v>
       </c>
       <c r="L24" t="n" s="11">
-        <v>237.069</v>
+        <v>237.023</v>
       </c>
       <c r="M24" t="n" s="11">
-        <v>238.47</v>
+        <v>238.462</v>
       </c>
       <c r="N24" t="n" s="11">
-        <v>240.051</v>
+        <v>240.073</v>
       </c>
       <c r="O24" t="n" s="11">
-        <v>242.488</v>
+        <v>242.509</v>
       </c>
       <c r="P24" t="n" s="11">
-        <v>241.559</v>
+        <v>241.521</v>
       </c>
       <c r="Q24" t="n" s="11">
-        <v>243.667</v>
+        <v>243.669</v>
       </c>
       <c r="R24" t="n" s="11">
-        <v>246.88</v>
+        <v>246.896</v>
       </c>
       <c r="S24" t="n" s="11">
-        <v>248.927</v>
+        <v>248.938</v>
       </c>
       <c r="T24" t="n" s="11">
-        <v>251.588</v>
+        <v>251.561</v>
       </c>
       <c r="U24" t="n" s="11">
-        <v>253.561</v>
+        <v>253.566</v>
       </c>
       <c r="V24" t="n" s="11">
-        <v>255.355</v>
+        <v>255.365</v>
       </c>
       <c r="W24" t="n" s="11">
-        <v>254.036</v>
+        <v>254.04</v>
       </c>
       <c r="X24" t="n" s="11">
-        <v>253.38</v>
+        <v>253.367</v>
       </c>
       <c r="Y24" t="n" s="11">
-        <v>255.316</v>
+        <v>255.318</v>
       </c>
       <c r="Z24" t="n" s="11">
-        <v>255.87</v>
+        <v>255.877</v>
       </c>
       <c r="AA24" t="n" s="11">
-        <v>255.316</v>
+        <v>255.317</v>
       </c>
       <c r="AB24" t="n" s="11">
-        <v>254.942</v>
+        <v>254.936</v>
       </c>
       <c r="AC24" t="n" s="11">
-        <v>255.159</v>
+        <v>255.157</v>
       </c>
       <c r="AD24" t="n" s="11">
-        <v>257.009</v>
+        <v>257.016</v>
       </c>
       <c r="AE24" t="n" s="11">
-        <v>257.713</v>
+        <v>257.712</v>
       </c>
       <c r="AF24" t="n" s="11">
-        <v>260.234</v>
+        <v>260.233</v>
       </c>
       <c r="AG24" t="n" s="11">
-        <v>262.045</v>
+        <v>262.042</v>
       </c>
       <c r="AH24" t="n" s="11">
-        <v>264.36</v>
+        <v>264.366</v>
       </c>
       <c r="AI24" t="n" s="11">
-        <v>264.352</v>
+        <v>264.349</v>
       </c>
       <c r="AJ24" t="n" s="11">
         <v>268.271</v>
       </c>
       <c r="AK24" t="n" s="11">
-        <v>269.836</v>
+        <v>269.833</v>
       </c>
       <c r="AL24" t="n" s="11">
-        <v>271.911</v>
+        <v>271.916</v>
       </c>
       <c r="AM24" t="n" s="11">
-        <v>276.119</v>
+        <v>276.115</v>
       </c>
       <c r="AN24" t="n" s="11">
-        <v>278.341</v>
+        <v>278.342</v>
       </c>
       <c r="AO24" t="n" s="11">
-        <v>280.674</v>
+        <v>280.67</v>
       </c>
       <c r="AP24" t="n" s="11">
-        <v>282.279</v>
+        <v>282.285</v>
       </c>
       <c r="AQ24" t="n" s="11">
-        <v>282.595</v>
+        <v>282.591</v>
       </c>
       <c r="AR24" t="n" s="11">
-        <v>283.106</v>
+        <v>283.108</v>
       </c>
       <c r="AS24" t="n" s="11">
-        <v>283.364</v>
+        <v>283.359</v>
       </c>
       <c r="AT24" t="n" s="11">
-        <v>285.982</v>
+        <v>285.991</v>
       </c>
       <c r="AU24" t="n" s="11">
-        <v>284.594</v>
+        <v>284.589</v>
       </c>
       <c r="AV24" t="n" s="11">
-        <v>284.419</v>
+        <v>284.421</v>
       </c>
       <c r="AW24" t="n" s="11">
-        <v>286.307</v>
+        <v>286.303</v>
       </c>
       <c r="AX24" t="n" s="11">
-        <v>286.884</v>
+        <v>286.891</v>
       </c>
       <c r="AY24" t="n" s="11">
-        <v>286.008</v>
+        <v>286.005</v>
       </c>
       <c r="AZ24" t="n" s="11">
         <v>285.213</v>
       </c>
       <c r="BA24" t="n" s="11">
-        <v>287.557</v>
+        <v>287.555</v>
       </c>
       <c r="BB24" t="n" s="11">
-        <v>287.143</v>
+        <v>287.148</v>
       </c>
       <c r="BC24" t="n" s="11">
-        <v>287.901</v>
+        <v>287.898</v>
       </c>
       <c r="BD24" t="n" s="11">
-        <v>287.404</v>
+        <v>287.405</v>
       </c>
       <c r="BE24" t="n" s="11">
-        <v>287.433</v>
+        <v>287.432</v>
       </c>
       <c r="BF24" t="n" s="11">
-        <v>287.271</v>
+        <v>287.275</v>
       </c>
       <c r="BG24" t="n" s="11">
-        <v>287.371</v>
+        <v>287.369</v>
       </c>
       <c r="BH24" t="n" s="11">
-        <v>286.83</v>
+        <v>286.829</v>
       </c>
       <c r="BI24" t="n" s="11">
-        <v>286.954</v>
+        <v>286.956</v>
       </c>
       <c r="BJ24" t="n" s="11">
-        <v>287.803</v>
+        <v>287.804</v>
       </c>
       <c r="BK24" t="n" s="11">
-        <v>289.024</v>
+        <v>289.021</v>
       </c>
       <c r="BL24" t="n" s="11">
-        <v>290.999</v>
+        <v>290.998</v>
       </c>
       <c r="BM24" t="n" s="11">
-        <v>294.635</v>
+        <v>294.639</v>
       </c>
       <c r="BN24" t="n" s="11">
         <v>295.217</v>
       </c>
       <c r="BO24" t="n" s="11">
-        <v>297.831</v>
+        <v>297.826</v>
       </c>
       <c r="BP24" t="n" s="11">
-        <v>299.967</v>
+        <v>299.969</v>
       </c>
       <c r="BQ24" t="n" s="11">
-        <v>302.063</v>
+        <v>302.069</v>
       </c>
       <c r="BR24" t="n" s="11">
-        <v>304.577</v>
+        <v>304.574</v>
       </c>
       <c r="BS24" t="n" s="11">
-        <v>308.97</v>
+        <v>308.962</v>
       </c>
       <c r="BT24" t="n" s="11">
-        <v>311.766</v>
+        <v>311.772</v>
       </c>
       <c r="BU24" t="n" s="11">
+        <v>313.956</v>
+      </c>
+      <c r="BV24" t="n" s="11">
+        <v>316.529</v>
+      </c>
+      <c r="BW24" t="n" s="11">
         <v>313.951</v>
       </c>
-      <c r="BV24" t="n" s="11">
-        <v>316.533</v>
-      </c>
-      <c r="BW24" t="n" s="11">
-        <v>313.961</v>
-      </c>
       <c r="BX24" t="n" s="11">
-        <v>312.896</v>
+        <v>312.907</v>
       </c>
       <c r="BY24" t="n" s="11">
-        <v>314.978</v>
+        <v>314.982</v>
       </c>
       <c r="BZ24" t="n" s="11">
-        <v>316.195</v>
+        <v>316.19</v>
       </c>
       <c r="CA24" t="n" s="11">
-        <v>319.308</v>
+        <v>319.296</v>
       </c>
       <c r="CB24" t="n" s="11">
-        <v>321.977</v>
+        <v>321.991</v>
       </c>
       <c r="CC24" t="n" s="11">
-        <v>325.469</v>
+        <v>325.473</v>
       </c>
       <c r="CD24" t="n" s="11">
-        <v>328.654</v>
+        <v>328.649</v>
       </c>
       <c r="CE24" t="n" s="11">
-        <v>333.541</v>
+        <v>333.53</v>
       </c>
       <c r="CF24" t="n" s="11">
-        <v>337.303</v>
+        <v>337.317</v>
       </c>
       <c r="CG24" t="n" s="11">
-        <v>339.377</v>
+        <v>339.379</v>
       </c>
       <c r="CH24" t="n" s="11">
-        <v>341.973</v>
+        <v>341.968</v>
       </c>
       <c r="CI24" t="n" s="11">
-        <v>346.361</v>
+        <v>346.351</v>
       </c>
       <c r="CJ24" t="n" s="11">
-        <v>350.945</v>
+        <v>350.956</v>
       </c>
       <c r="CK24" t="n" s="11">
-        <v>352.988</v>
+        <v>352.989</v>
       </c>
       <c r="CL24" t="n" s="11">
-        <v>355.597</v>
+        <v>355.594</v>
       </c>
       <c r="CM24" t="n" s="11">
-        <v>356.772</v>
+        <v>356.766</v>
       </c>
       <c r="CN24" t="n" s="11">
-        <v>360.109</v>
+        <v>360.117</v>
       </c>
       <c r="CO24" t="n" s="11">
-        <v>363.428</v>
+        <v>363.43</v>
       </c>
       <c r="CP24" t="n" s="11">
-        <v>366.302</v>
+        <v>366.299</v>
       </c>
       <c r="CQ24" t="n" s="11">
-        <v>371.466</v>
+        <v>371.461</v>
       </c>
       <c r="CR24" t="n" s="11">
-        <v>374.31</v>
+        <v>374.317</v>
       </c>
       <c r="CS24" t="n" s="11">
-        <v>377.491</v>
+        <v>377.494</v>
       </c>
       <c r="CT24" t="n" s="11">
-        <v>380.683</v>
+        <v>380.678</v>
       </c>
       <c r="CU24" t="n" s="11">
-        <v>384.292</v>
+        <v>384.289</v>
       </c>
       <c r="CV24" t="n" s="11">
-        <v>389.999</v>
+        <v>390.016</v>
       </c>
       <c r="CW24" t="n" s="11">
-        <v>393.159</v>
+        <v>393.167</v>
       </c>
       <c r="CX24" t="n" s="11">
-        <v>397.363</v>
+        <v>397.34</v>
       </c>
       <c r="CY24" t="n" s="11">
-        <v>400.55</v>
+        <v>400.544</v>
       </c>
       <c r="CZ24" t="n" s="11">
-        <v>403.614</v>
+        <v>403.656</v>
       </c>
       <c r="DA24" t="n" s="11">
-        <v>407.775</v>
+        <v>407.794</v>
       </c>
       <c r="DB24" t="n" s="11">
-        <v>413.111</v>
+        <v>413.054</v>
       </c>
       <c r="DC24" t="n" s="11">
-        <v>417.307</v>
+        <v>417.28</v>
       </c>
       <c r="DD24" t="n" s="11">
-        <v>421.625</v>
+        <v>421.741</v>
       </c>
       <c r="DE24" t="n" s="11">
-        <v>425.683</v>
+        <v>425.718</v>
       </c>
       <c r="DF24" t="n" s="11">
-        <v>431.699</v>
+        <v>431.577</v>
       </c>
       <c r="DG24" t="n" s="11">
-        <v>435.952</v>
+        <v>435.876</v>
       </c>
       <c r="DH24" t="n" s="11">
-        <v>440.498</v>
+        <v>440.763</v>
       </c>
       <c r="DI24" t="n" s="11">
-        <v>446.495</v>
+        <v>446.54</v>
       </c>
       <c r="DJ24" t="n" s="11">
-        <v>450.711</v>
+        <v>450.478</v>
       </c>
       <c r="DK24" t="n" s="11">
-        <v>457.142</v>
+        <v>456.997</v>
       </c>
       <c r="DL24" t="n" s="11">
-        <v>461.951</v>
+        <v>462.434</v>
       </c>
       <c r="DM24" t="n" s="11">
-        <v>468.002</v>
+        <v>468.052</v>
       </c>
       <c r="DN24" t="n" s="11">
-        <v>468.432</v>
+        <v>468.044</v>
       </c>
       <c r="DO24" t="n" s="11">
-        <v>470.049</v>
+        <v>469.829</v>
       </c>
       <c r="DP24" t="n" s="11">
-        <v>447.28</v>
+        <v>448.023</v>
       </c>
       <c r="DQ24" t="n" s="11">
-        <v>464.238</v>
+        <v>464.281</v>
       </c>
       <c r="DR24" t="n" s="11">
-        <v>470.538</v>
+        <v>469.972</v>
       </c>
       <c r="DS24" t="n" s="11">
-        <v>467.948</v>
+        <v>467.963</v>
       </c>
       <c r="DT24" t="n" s="11">
-        <v>471.253</v>
+        <v>472.662</v>
       </c>
       <c r="DU24" t="n" s="11">
-        <v>484.365</v>
-      </c>
-      <c r="DV24" t="s" s="11">
-        <v>43</v>
+        <v>487.234</v>
+      </c>
+      <c r="DV24" t="n" s="11">
+        <v>492.554</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="10">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B25" t="s" s="14">
         <v>42</v>
       </c>
       <c r="C25" t="n" s="11">
-        <v>35.755</v>
+        <v>35.794</v>
       </c>
       <c r="D25" t="n" s="11">
-        <v>39.216</v>
+        <v>39.165</v>
       </c>
       <c r="E25" t="n" s="11">
-        <v>38.918</v>
+        <v>38.901</v>
       </c>
       <c r="F25" t="n" s="11">
-        <v>38.599</v>
+        <v>38.629</v>
       </c>
       <c r="G25" t="n" s="11">
-        <v>39.723</v>
+        <v>39.758</v>
       </c>
       <c r="H25" t="n" s="11">
-        <v>41.116</v>
+        <v>41.069</v>
       </c>
       <c r="I25" t="n" s="11">
-        <v>42.443</v>
+        <v>42.427</v>
       </c>
       <c r="J25" t="n" s="11">
-        <v>42.263</v>
+        <v>42.292</v>
       </c>
       <c r="K25" t="n" s="11">
-        <v>40.523</v>
+        <v>40.553</v>
       </c>
       <c r="L25" t="n" s="11">
-        <v>42.206</v>
+        <v>42.16</v>
       </c>
       <c r="M25" t="n" s="11">
-        <v>42.084</v>
+        <v>42.076</v>
       </c>
       <c r="N25" t="n" s="11">
-        <v>42.898</v>
+        <v>42.92</v>
       </c>
       <c r="O25" t="n" s="11">
-        <v>44.024</v>
+        <v>44.045</v>
       </c>
       <c r="P25" t="n" s="11">
-        <v>44.939</v>
+        <v>44.901</v>
       </c>
       <c r="Q25" t="n" s="11">
-        <v>44.966</v>
+        <v>44.968</v>
       </c>
       <c r="R25" t="n" s="11">
-        <v>45.793</v>
+        <v>45.809</v>
       </c>
       <c r="S25" t="n" s="11">
-        <v>46.011</v>
+        <v>46.022</v>
       </c>
       <c r="T25" t="n" s="11">
-        <v>47.396</v>
+        <v>47.369</v>
       </c>
       <c r="U25" t="n" s="11">
-        <v>47.982</v>
+        <v>47.987</v>
       </c>
       <c r="V25" t="n" s="11">
-        <v>48.458</v>
+        <v>48.468</v>
       </c>
       <c r="W25" t="n" s="11">
-        <v>46.705</v>
+        <v>46.709</v>
       </c>
       <c r="X25" t="n" s="11">
-        <v>47.296</v>
+        <v>47.283</v>
       </c>
       <c r="Y25" t="n" s="11">
-        <v>47.91</v>
+        <v>47.912</v>
       </c>
       <c r="Z25" t="n" s="11">
-        <v>48.726</v>
+        <v>48.733</v>
       </c>
       <c r="AA25" t="n" s="11">
-        <v>48.653</v>
+        <v>48.654</v>
       </c>
       <c r="AB25" t="n" s="11">
-        <v>49.065</v>
+        <v>49.059</v>
       </c>
       <c r="AC25" t="n" s="11">
-        <v>48.923</v>
+        <v>48.921</v>
       </c>
       <c r="AD25" t="n" s="11">
-        <v>49.647</v>
+        <v>49.654</v>
       </c>
       <c r="AE25" t="n" s="11">
-        <v>49.301</v>
+        <v>49.3</v>
       </c>
       <c r="AF25" t="n" s="11">
-        <v>50.094</v>
+        <v>50.093</v>
       </c>
       <c r="AG25" t="n" s="11">
-        <v>50.336</v>
+        <v>50.333</v>
       </c>
       <c r="AH25" t="n" s="11">
-        <v>51.374</v>
+        <v>51.38</v>
       </c>
       <c r="AI25" t="n" s="11">
-        <v>50.43</v>
+        <v>50.427</v>
       </c>
       <c r="AJ25" t="n" s="11">
         <v>51.182</v>
       </c>
       <c r="AK25" t="n" s="11">
-        <v>51.636</v>
+        <v>51.633</v>
       </c>
       <c r="AL25" t="n" s="11">
-        <v>52.43</v>
+        <v>52.435</v>
       </c>
       <c r="AM25" t="n" s="11">
-        <v>53.636</v>
+        <v>53.632</v>
       </c>
       <c r="AN25" t="n" s="11">
-        <v>54.028</v>
+        <v>54.029</v>
       </c>
       <c r="AO25" t="n" s="11">
-        <v>54.676</v>
+        <v>54.672</v>
       </c>
       <c r="AP25" t="n" s="11">
-        <v>55.017</v>
+        <v>55.023</v>
       </c>
       <c r="AQ25" t="n" s="11">
-        <v>53.761</v>
+        <v>53.757</v>
       </c>
       <c r="AR25" t="n" s="11">
-        <v>53.983</v>
+        <v>53.985</v>
       </c>
       <c r="AS25" t="n" s="11">
-        <v>54.445</v>
+        <v>54.44</v>
       </c>
       <c r="AT25" t="n" s="11">
-        <v>55.076</v>
+        <v>55.085</v>
       </c>
       <c r="AU25" t="n" s="11">
-        <v>53.682</v>
+        <v>53.677</v>
       </c>
       <c r="AV25" t="n" s="11">
-        <v>53.608</v>
+        <v>53.61</v>
       </c>
       <c r="AW25" t="n" s="11">
-        <v>54.712</v>
+        <v>54.708</v>
       </c>
       <c r="AX25" t="n" s="11">
-        <v>54.552</v>
+        <v>54.559</v>
       </c>
       <c r="AY25" t="n" s="11">
-        <v>55.017</v>
+        <v>55.014</v>
       </c>
       <c r="AZ25" t="n" s="11">
         <v>54.716</v>
       </c>
       <c r="BA25" t="n" s="11">
-        <v>55.813</v>
+        <v>55.811</v>
       </c>
       <c r="BB25" t="n" s="11">
-        <v>55.311</v>
+        <v>55.316</v>
       </c>
       <c r="BC25" t="n" s="11">
-        <v>54.774</v>
+        <v>54.771</v>
       </c>
       <c r="BD25" t="n" s="11">
-        <v>54.493</v>
+        <v>54.494</v>
       </c>
       <c r="BE25" t="n" s="11">
-        <v>55.002</v>
+        <v>55.001</v>
       </c>
       <c r="BF25" t="n" s="11">
-        <v>54.621</v>
+        <v>54.625</v>
       </c>
       <c r="BG25" t="n" s="11">
-        <v>54.549</v>
+        <v>54.547</v>
       </c>
       <c r="BH25" t="n" s="11">
-        <v>54.811</v>
+        <v>54.81</v>
       </c>
       <c r="BI25" t="n" s="11">
-        <v>54.418</v>
+        <v>54.42</v>
       </c>
       <c r="BJ25" t="n" s="11">
-        <v>54.197</v>
+        <v>54.198</v>
       </c>
       <c r="BK25" t="n" s="11">
-        <v>55.668</v>
+        <v>55.665</v>
       </c>
       <c r="BL25" t="n" s="11">
-        <v>55.548</v>
+        <v>55.547</v>
       </c>
       <c r="BM25" t="n" s="11">
-        <v>56.612</v>
+        <v>56.616</v>
       </c>
       <c r="BN25" t="n" s="11">
         <v>56.014</v>
       </c>
       <c r="BO25" t="n" s="11">
-        <v>56.183</v>
+        <v>56.178</v>
       </c>
       <c r="BP25" t="n" s="11">
-        <v>56.092</v>
+        <v>56.094</v>
       </c>
       <c r="BQ25" t="n" s="11">
-        <v>56.998</v>
+        <v>57.004</v>
       </c>
       <c r="BR25" t="n" s="11">
-        <v>56.446</v>
+        <v>56.443</v>
       </c>
       <c r="BS25" t="n" s="11">
-        <v>57.015</v>
+        <v>57.007</v>
       </c>
       <c r="BT25" t="n" s="11">
-        <v>57.956</v>
+        <v>57.962</v>
       </c>
       <c r="BU25" t="n" s="11">
-        <v>58.446</v>
+        <v>58.451</v>
       </c>
       <c r="BV25" t="n" s="11">
-        <v>58.783</v>
+        <v>58.779</v>
       </c>
       <c r="BW25" t="n" s="11">
-        <v>59.273</v>
+        <v>59.263</v>
       </c>
       <c r="BX25" t="n" s="11">
-        <v>59.742</v>
+        <v>59.753</v>
       </c>
       <c r="BY25" t="n" s="11">
-        <v>58.972</v>
+        <v>58.976</v>
       </c>
       <c r="BZ25" t="n" s="11">
-        <v>58.592</v>
+        <v>58.587</v>
       </c>
       <c r="CA25" t="n" s="11">
-        <v>60.056</v>
+        <v>60.044</v>
       </c>
       <c r="CB25" t="n" s="11">
-        <v>60.761</v>
+        <v>60.775</v>
       </c>
       <c r="CC25" t="n" s="11">
-        <v>61.003</v>
+        <v>61.007</v>
       </c>
       <c r="CD25" t="n" s="11">
-        <v>61.254</v>
+        <v>61.249</v>
       </c>
       <c r="CE25" t="n" s="11">
-        <v>61.557</v>
+        <v>61.546</v>
       </c>
       <c r="CF25" t="n" s="11">
-        <v>62.209</v>
+        <v>62.223</v>
       </c>
       <c r="CG25" t="n" s="11">
-        <v>62.454</v>
+        <v>62.456</v>
       </c>
       <c r="CH25" t="n" s="11">
-        <v>62.429</v>
+        <v>62.424</v>
       </c>
       <c r="CI25" t="n" s="11">
-        <v>63.223</v>
+        <v>63.213</v>
       </c>
       <c r="CJ25" t="n" s="11">
-        <v>64.062</v>
+        <v>64.073</v>
       </c>
       <c r="CK25" t="n" s="11">
-        <v>64.309</v>
+        <v>64.31</v>
       </c>
       <c r="CL25" t="n" s="11">
-        <v>64.34</v>
+        <v>64.337</v>
       </c>
       <c r="CM25" t="n" s="11">
-        <v>64.33</v>
+        <v>64.324</v>
       </c>
       <c r="CN25" t="n" s="11">
-        <v>64.998</v>
+        <v>65.006</v>
       </c>
       <c r="CO25" t="n" s="11">
-        <v>65.284</v>
+        <v>65.286</v>
       </c>
       <c r="CP25" t="n" s="11">
-        <v>65.656</v>
+        <v>65.653</v>
       </c>
       <c r="CQ25" t="n" s="11">
-        <v>66.782</v>
+        <v>66.777</v>
       </c>
       <c r="CR25" t="n" s="11">
-        <v>67.183</v>
+        <v>67.19</v>
       </c>
       <c r="CS25" t="n" s="11">
-        <v>67.644</v>
+        <v>67.647</v>
       </c>
       <c r="CT25" t="n" s="11">
-        <v>68.172</v>
+        <v>68.167</v>
       </c>
       <c r="CU25" t="n" s="11">
-        <v>68.922</v>
+        <v>68.919</v>
       </c>
       <c r="CV25" t="n" s="11">
-        <v>69.505</v>
+        <v>69.522</v>
       </c>
       <c r="CW25" t="n" s="11">
-        <v>70.084</v>
+        <v>70.092</v>
       </c>
       <c r="CX25" t="n" s="11">
-        <v>70.845</v>
+        <v>70.822</v>
       </c>
       <c r="CY25" t="n" s="11">
-        <v>70.869</v>
+        <v>70.863</v>
       </c>
       <c r="CZ25" t="n" s="11">
-        <v>71.296</v>
+        <v>71.338</v>
       </c>
       <c r="DA25" t="n" s="11">
-        <v>72.269</v>
+        <v>72.288</v>
       </c>
       <c r="DB25" t="n" s="11">
-        <v>73.228</v>
+        <v>73.171</v>
       </c>
       <c r="DC25" t="n" s="11">
-        <v>73.706</v>
+        <v>73.679</v>
       </c>
       <c r="DD25" t="n" s="11">
-        <v>74.687</v>
+        <v>74.803</v>
       </c>
       <c r="DE25" t="n" s="11">
-        <v>75.329</v>
+        <v>75.364</v>
       </c>
       <c r="DF25" t="n" s="11">
-        <v>77.166</v>
+        <v>77.044</v>
       </c>
       <c r="DG25" t="n" s="11">
-        <v>76.02</v>
+        <v>75.944</v>
       </c>
       <c r="DH25" t="n" s="11">
-        <v>76.482</v>
+        <v>76.747</v>
       </c>
       <c r="DI25" t="n" s="11">
-        <v>78.203</v>
+        <v>78.248</v>
       </c>
       <c r="DJ25" t="n" s="11">
-        <v>80.305</v>
+        <v>80.072</v>
       </c>
       <c r="DK25" t="n" s="11">
-        <v>81.169</v>
+        <v>81.024</v>
       </c>
       <c r="DL25" t="n" s="11">
-        <v>81.284</v>
+        <v>81.767</v>
       </c>
       <c r="DM25" t="n" s="11">
-        <v>83.226</v>
+        <v>83.276</v>
       </c>
       <c r="DN25" t="n" s="11">
-        <v>85.786</v>
+        <v>85.398</v>
       </c>
       <c r="DO25" t="n" s="11">
-        <v>82.964</v>
+        <v>82.744</v>
       </c>
       <c r="DP25" t="n" s="11">
-        <v>82.866</v>
+        <v>83.609</v>
       </c>
       <c r="DQ25" t="n" s="11">
-        <v>84.32</v>
+        <v>84.363</v>
       </c>
       <c r="DR25" t="n" s="11">
-        <v>87.898</v>
+        <v>87.332</v>
       </c>
       <c r="DS25" t="n" s="11">
-        <v>85.05</v>
+        <v>84.756</v>
       </c>
       <c r="DT25" t="n" s="11">
-        <v>84.708</v>
+        <v>85.696</v>
       </c>
       <c r="DU25" t="n" s="11">
-        <v>87.086</v>
-      </c>
-      <c r="DV25" t="s" s="11">
-        <v>43</v>
+        <v>87.374</v>
+      </c>
+      <c r="DV25" t="n" s="11">
+        <v>91.414</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="10">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B26" t="s" s="14">
         <v>42</v>
@@ -10683,21 +10680,21 @@
         <v>382.64</v>
       </c>
       <c r="DS26" t="n" s="11">
-        <v>382.898</v>
+        <v>383.207</v>
       </c>
       <c r="DT26" t="n" s="11">
-        <v>386.545</v>
+        <v>386.966</v>
       </c>
       <c r="DU26" t="n" s="11">
-        <v>397.279</v>
-      </c>
-      <c r="DV26" t="s" s="11">
-        <v>43</v>
+        <v>399.86</v>
+      </c>
+      <c r="DV26" t="n" s="11">
+        <v>401.14</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="10">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B27" t="s" s="14">
         <v>42</v>
@@ -11063,21 +11060,21 @@
         <v>122.341</v>
       </c>
       <c r="DS27" t="n" s="11">
-        <v>124.703</v>
+        <v>124.839</v>
       </c>
       <c r="DT27" t="n" s="11">
-        <v>124.9</v>
+        <v>125.046</v>
       </c>
       <c r="DU27" t="n" s="11">
-        <v>128.855</v>
-      </c>
-      <c r="DV27" t="s" s="11">
-        <v>43</v>
+        <v>129.232</v>
+      </c>
+      <c r="DV27" t="n" s="11">
+        <v>127.845</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="10">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B28" t="s" s="14">
         <v>42</v>
@@ -11443,21 +11440,21 @@
         <v>260.299</v>
       </c>
       <c r="DS28" t="n" s="11">
-        <v>258.195</v>
+        <v>258.368</v>
       </c>
       <c r="DT28" t="n" s="11">
-        <v>261.645</v>
+        <v>261.92</v>
       </c>
       <c r="DU28" t="n" s="11">
-        <v>268.424</v>
-      </c>
-      <c r="DV28" t="s" s="11">
-        <v>43</v>
+        <v>270.628</v>
+      </c>
+      <c r="DV28" t="n" s="11">
+        <v>273.295</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="10">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B29" t="s" s="14">
         <v>42</v>
@@ -11823,21 +11820,21 @@
         <v>168.545</v>
       </c>
       <c r="DS29" t="n" s="11">
-        <v>170.086</v>
+        <v>169.81</v>
       </c>
       <c r="DT29" t="n" s="11">
-        <v>171.151</v>
+        <v>170.913</v>
       </c>
       <c r="DU29" t="n" s="11">
-        <v>166.234</v>
-      </c>
-      <c r="DV29" t="s" s="11">
-        <v>43</v>
+        <v>165.881</v>
+      </c>
+      <c r="DV29" t="n" s="11">
+        <v>167.374</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="10">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B30" t="s" s="14">
         <v>42</v>
@@ -12203,21 +12200,21 @@
         <v>35.381</v>
       </c>
       <c r="DS30" t="n" s="11">
-        <v>35.633</v>
+        <v>35.615</v>
       </c>
       <c r="DT30" t="n" s="11">
-        <v>35.953</v>
+        <v>35.918</v>
       </c>
       <c r="DU30" t="n" s="11">
-        <v>35.312</v>
-      </c>
-      <c r="DV30" t="s" s="11">
-        <v>43</v>
+        <v>35.224</v>
+      </c>
+      <c r="DV30" t="n" s="11">
+        <v>35.699</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="10">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B31" t="s" s="14">
         <v>42</v>
@@ -12583,21 +12580,21 @@
         <v>393.463</v>
       </c>
       <c r="DS31" t="n" s="11">
-        <v>392.648</v>
+        <v>392.563</v>
       </c>
       <c r="DT31" t="n" s="11">
-        <v>396.843</v>
+        <v>396.915</v>
       </c>
       <c r="DU31" t="n" s="11">
-        <v>399.346</v>
-      </c>
-      <c r="DV31" t="s" s="11">
-        <v>43</v>
+        <v>401.285</v>
+      </c>
+      <c r="DV31" t="n" s="11">
+        <v>404.97</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="10">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B32" t="s" s="14">
         <v>42</v>
@@ -12963,21 +12960,21 @@
         <v>127.001</v>
       </c>
       <c r="DS32" t="n" s="11">
-        <v>129.796</v>
+        <v>129.266</v>
       </c>
       <c r="DT32" t="n" s="11">
-        <v>128.594</v>
+        <v>127.723</v>
       </c>
       <c r="DU32" t="n" s="11">
-        <v>140.822</v>
-      </c>
-      <c r="DV32" t="s" s="11">
-        <v>43</v>
+        <v>134.993</v>
+      </c>
+      <c r="DV32" t="n" s="11">
+        <v>136.769</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="10">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B33" t="s" s="14">
         <v>42</v>
@@ -13343,21 +13340,21 @@
         <v>-23.648</v>
       </c>
       <c r="DS33" t="n" s="11">
-        <v>-26.64</v>
+        <v>-25.549</v>
       </c>
       <c r="DT33" t="n" s="11">
-        <v>-25.046</v>
+        <v>-24.024</v>
       </c>
       <c r="DU33" t="n" s="11">
-        <v>-30.986</v>
-      </c>
-      <c r="DV33" t="s" s="11">
-        <v>43</v>
+        <v>-29.279</v>
+      </c>
+      <c r="DV33" t="n" s="11">
+        <v>-32.368</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="10">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B34" t="s" s="14">
         <v>42</v>
@@ -13723,60 +13720,60 @@
         <v>496.816</v>
       </c>
       <c r="DS34" t="n" s="11">
-        <v>495.804</v>
+        <v>496.28</v>
       </c>
       <c r="DT34" t="n" s="11">
-        <v>500.391</v>
+        <v>500.614</v>
       </c>
       <c r="DU34" t="n" s="11">
-        <v>509.182</v>
-      </c>
-      <c r="DV34" t="s" s="11">
-        <v>43</v>
+        <v>506.999</v>
+      </c>
+      <c r="DV34" t="n" s="11">
+        <v>509.371</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="10">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B35" t="s" s="14">
         <v>42</v>
       </c>
       <c r="C35" t="n" s="11">
-        <v>281.89</v>
+        <v>281.888</v>
       </c>
       <c r="D35" t="n" s="11">
-        <v>294.325</v>
+        <v>294.323</v>
       </c>
       <c r="E35" t="n" s="11">
-        <v>291.888</v>
+        <v>291.887</v>
       </c>
       <c r="F35" t="n" s="11">
-        <v>304.139</v>
+        <v>304.144</v>
       </c>
       <c r="G35" t="n" s="11">
-        <v>308.526</v>
+        <v>308.523</v>
       </c>
       <c r="H35" t="n" s="11">
-        <v>313.016</v>
+        <v>313.019</v>
       </c>
       <c r="I35" t="n" s="11">
-        <v>315.526</v>
+        <v>315.522</v>
       </c>
       <c r="J35" t="n" s="11">
-        <v>326.441</v>
+        <v>326.445</v>
       </c>
       <c r="K35" t="n" s="11">
-        <v>320.883</v>
+        <v>320.888</v>
       </c>
       <c r="L35" t="n" s="11">
-        <v>326.545</v>
+        <v>326.551</v>
       </c>
       <c r="M35" t="n" s="11">
-        <v>327.563</v>
+        <v>327.554</v>
       </c>
       <c r="N35" t="n" s="11">
-        <v>333.014</v>
+        <v>333.012</v>
       </c>
       <c r="O35" t="n" s="11">
         <v>336.309</v>
@@ -13791,28 +13788,28 @@
         <v>344.17</v>
       </c>
       <c r="S35" t="n" s="11">
-        <v>343.539</v>
+        <v>343.538</v>
       </c>
       <c r="T35" t="n" s="11">
-        <v>348.416</v>
+        <v>348.414</v>
       </c>
       <c r="U35" t="n" s="11">
-        <v>349.909</v>
+        <v>349.907</v>
       </c>
       <c r="V35" t="n" s="11">
-        <v>350.637</v>
+        <v>350.643</v>
       </c>
       <c r="W35" t="n" s="11">
-        <v>355.621</v>
+        <v>355.631</v>
       </c>
       <c r="X35" t="n" s="11">
-        <v>355.299</v>
+        <v>355.301</v>
       </c>
       <c r="Y35" t="n" s="11">
-        <v>357.124</v>
+        <v>357.118</v>
       </c>
       <c r="Z35" t="n" s="11">
-        <v>357.048</v>
+        <v>357.042</v>
       </c>
       <c r="AA35" t="n" s="11">
         <v>357.842</v>
@@ -13887,16 +13884,16 @@
         <v>402.424</v>
       </c>
       <c r="AY35" t="n" s="11">
-        <v>407.176</v>
+        <v>407.178</v>
       </c>
       <c r="AZ35" t="n" s="11">
-        <v>404.751</v>
+        <v>404.753</v>
       </c>
       <c r="BA35" t="n" s="11">
-        <v>409.031</v>
+        <v>409.025</v>
       </c>
       <c r="BB35" t="n" s="11">
-        <v>407.898</v>
+        <v>407.9</v>
       </c>
       <c r="BC35" t="n" s="11">
         <v>412.447</v>
@@ -13971,16 +13968,16 @@
         <v>450.04</v>
       </c>
       <c r="CA35" t="n" s="11">
-        <v>454.345</v>
+        <v>454.347</v>
       </c>
       <c r="CB35" t="n" s="11">
-        <v>458.226</v>
+        <v>458.228</v>
       </c>
       <c r="CC35" t="n" s="11">
-        <v>462.569</v>
+        <v>462.571</v>
       </c>
       <c r="CD35" t="n" s="11">
-        <v>466.992</v>
+        <v>466.985</v>
       </c>
       <c r="CE35" t="n" s="11">
         <v>469.215</v>
@@ -14013,111 +14010,111 @@
         <v>496.257</v>
       </c>
       <c r="CO35" t="n" s="11">
-        <v>500.593</v>
+        <v>500.602</v>
       </c>
       <c r="CP35" t="n" s="11">
-        <v>499.727</v>
+        <v>499.718</v>
       </c>
       <c r="CQ35" t="n" s="11">
-        <v>504.138</v>
+        <v>504.145</v>
       </c>
       <c r="CR35" t="n" s="11">
-        <v>508.569</v>
+        <v>508.567</v>
       </c>
       <c r="CS35" t="n" s="11">
-        <v>514.718</v>
+        <v>514.715</v>
       </c>
       <c r="CT35" t="n" s="11">
-        <v>516.771</v>
+        <v>516.768</v>
       </c>
       <c r="CU35" t="n" s="11">
-        <v>517.472</v>
+        <v>517.474</v>
       </c>
       <c r="CV35" t="n" s="11">
-        <v>525.232</v>
+        <v>525.234</v>
       </c>
       <c r="CW35" t="n" s="11">
-        <v>530.13</v>
+        <v>530.132</v>
       </c>
       <c r="CX35" t="n" s="11">
-        <v>535.124</v>
+        <v>535.116</v>
       </c>
       <c r="CY35" t="n" s="11">
-        <v>539.403</v>
+        <v>539.4</v>
       </c>
       <c r="CZ35" t="n" s="11">
-        <v>547.226</v>
+        <v>547.223</v>
       </c>
       <c r="DA35" t="n" s="11">
-        <v>549.691</v>
+        <v>549.698</v>
       </c>
       <c r="DB35" t="n" s="11">
-        <v>553.241</v>
+        <v>553.238</v>
       </c>
       <c r="DC35" t="n" s="11">
-        <v>560.784</v>
+        <v>560.779</v>
       </c>
       <c r="DD35" t="n" s="11">
-        <v>562.59</v>
+        <v>562.595</v>
       </c>
       <c r="DE35" t="n" s="11">
-        <v>567.807</v>
+        <v>567.812</v>
       </c>
       <c r="DF35" t="n" s="11">
-        <v>572.288</v>
+        <v>572.283</v>
       </c>
       <c r="DG35" t="n" s="11">
-        <v>584.348</v>
+        <v>584.327</v>
       </c>
       <c r="DH35" t="n" s="11">
-        <v>585.837</v>
+        <v>585.848</v>
       </c>
       <c r="DI35" t="n" s="11">
-        <v>587.29</v>
+        <v>587.331</v>
       </c>
       <c r="DJ35" t="n" s="11">
-        <v>593.532</v>
+        <v>593.5</v>
       </c>
       <c r="DK35" t="n" s="11">
-        <v>597.981</v>
+        <v>597.953</v>
       </c>
       <c r="DL35" t="n" s="11">
-        <v>601.305</v>
+        <v>601.318</v>
       </c>
       <c r="DM35" t="n" s="11">
-        <v>606.039</v>
+        <v>606.135</v>
       </c>
       <c r="DN35" t="n" s="11">
-        <v>607.921</v>
+        <v>607.84</v>
       </c>
       <c r="DO35" t="n" s="11">
-        <v>616.856</v>
+        <v>616.819</v>
       </c>
       <c r="DP35" t="n" s="11">
-        <v>595.77</v>
+        <v>595.787</v>
       </c>
       <c r="DQ35" t="n" s="11">
-        <v>616.517</v>
+        <v>616.697</v>
       </c>
       <c r="DR35" t="n" s="11">
-        <v>618.236</v>
+        <v>618.076</v>
       </c>
       <c r="DS35" t="n" s="11">
-        <v>615.777</v>
+        <v>618.022</v>
       </c>
       <c r="DT35" t="n" s="11">
-        <v>625.744</v>
+        <v>629.944</v>
       </c>
       <c r="DU35" t="n" s="11">
-        <v>636.756</v>
-      </c>
-      <c r="DV35" t="s" s="11">
-        <v>43</v>
+        <v>639.007</v>
+      </c>
+      <c r="DV35" t="n" s="11">
+        <v>642.575</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="10">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B36" t="s" s="14">
         <v>42</v>
@@ -14486,18 +14483,18 @@
         <v>15.168</v>
       </c>
       <c r="DT36" t="n" s="11">
-        <v>15.113</v>
+        <v>15.112</v>
       </c>
       <c r="DU36" t="n" s="11">
-        <v>15.231</v>
-      </c>
-      <c r="DV36" t="s" s="11">
-        <v>43</v>
+        <v>15.212</v>
+      </c>
+      <c r="DV36" t="n" s="11">
+        <v>15.288</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="10">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B37" t="s" s="14">
         <v>42</v>
@@ -14863,21 +14860,21 @@
         <v>84.1</v>
       </c>
       <c r="DS37" t="n" s="11">
-        <v>97.106</v>
+        <v>97.092</v>
       </c>
       <c r="DT37" t="n" s="11">
-        <v>86.606</v>
+        <v>86.495</v>
       </c>
       <c r="DU37" t="n" s="11">
-        <v>64.057</v>
-      </c>
-      <c r="DV37" t="s" s="11">
-        <v>43</v>
+        <v>61.976</v>
+      </c>
+      <c r="DV37" t="n" s="11">
+        <v>65.495</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="10">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B38" t="s" s="14">
         <v>42</v>
@@ -15243,24 +15240,24 @@
         <v>511.894</v>
       </c>
       <c r="DS38" t="n" s="11">
-        <v>510.972</v>
+        <v>511.448</v>
       </c>
       <c r="DT38" t="n" s="11">
-        <v>515.504</v>
+        <v>515.726</v>
       </c>
       <c r="DU38" t="n" s="11">
-        <v>524.413</v>
-      </c>
-      <c r="DV38" t="s" s="11">
-        <v>43</v>
+        <v>522.211</v>
+      </c>
+      <c r="DV38" t="n" s="11">
+        <v>524.659</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="10">
+        <v>57</v>
+      </c>
+      <c r="B39" t="s" s="14">
         <v>58</v>
-      </c>
-      <c r="B39" t="s" s="14">
-        <v>59</v>
       </c>
       <c r="C39" t="n" s="11">
         <v>12.4</v>
@@ -15629,15 +15626,15 @@
         <v>16.8</v>
       </c>
       <c r="DU39" t="n" s="11">
-        <v>12.2</v>
-      </c>
-      <c r="DV39" t="s" s="11">
-        <v>43</v>
+        <v>11.9</v>
+      </c>
+      <c r="DV39" t="n" s="11">
+        <v>12.5</v>
       </c>
     </row>
     <row r="40" ht="33.75" customHeight="true">
       <c r="A40" t="s" s="15">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41">
@@ -15648,106 +15645,106 @@
         <v>42</v>
       </c>
       <c r="C41" t="n" s="11">
-        <v>207.629</v>
+        <v>207.608</v>
       </c>
       <c r="D41" t="n" s="11">
-        <v>214.096</v>
+        <v>214.177</v>
       </c>
       <c r="E41" t="n" s="11">
-        <v>214.413</v>
+        <v>214.51</v>
       </c>
       <c r="F41" t="n" s="11">
-        <v>219.538</v>
+        <v>219.364</v>
       </c>
       <c r="G41" t="n" s="11">
-        <v>226.056</v>
+        <v>226.005</v>
       </c>
       <c r="H41" t="n" s="11">
-        <v>229.392</v>
+        <v>229.509</v>
       </c>
       <c r="I41" t="n" s="11">
-        <v>235.394</v>
+        <v>235.529</v>
       </c>
       <c r="J41" t="n" s="11">
-        <v>236.467</v>
+        <v>236.256</v>
       </c>
       <c r="K41" t="n" s="11">
-        <v>233.742</v>
+        <v>233.671</v>
       </c>
       <c r="L41" t="n" s="11">
-        <v>237.299</v>
+        <v>237.463</v>
       </c>
       <c r="M41" t="n" s="11">
-        <v>237.759</v>
+        <v>237.916</v>
       </c>
       <c r="N41" t="n" s="11">
-        <v>240.221</v>
+        <v>239.907</v>
       </c>
       <c r="O41" t="n" s="11">
-        <v>241.847</v>
+        <v>241.868</v>
       </c>
       <c r="P41" t="n" s="11">
-        <v>241.894</v>
+        <v>242.062</v>
       </c>
       <c r="Q41" t="n" s="11">
-        <v>243.659</v>
+        <v>243.839</v>
       </c>
       <c r="R41" t="n" s="11">
-        <v>246.848</v>
+        <v>246.366</v>
       </c>
       <c r="S41" t="n" s="11">
-        <v>248.479</v>
+        <v>248.636</v>
       </c>
       <c r="T41" t="n" s="11">
-        <v>251.892</v>
+        <v>252.059</v>
       </c>
       <c r="U41" t="n" s="11">
-        <v>253.314</v>
+        <v>253.487</v>
       </c>
       <c r="V41" t="n" s="11">
-        <v>255.29</v>
+        <v>254.793</v>
       </c>
       <c r="W41" t="n" s="11">
-        <v>254.053</v>
+        <v>254.225</v>
       </c>
       <c r="X41" t="n" s="11">
-        <v>253.936</v>
+        <v>254.066</v>
       </c>
       <c r="Y41" t="n" s="11">
-        <v>255.067</v>
+        <v>255.155</v>
       </c>
       <c r="Z41" t="n" s="11">
-        <v>255.534</v>
+        <v>255.265</v>
       </c>
       <c r="AA41" t="n" s="11">
-        <v>255.476</v>
+        <v>255.565</v>
       </c>
       <c r="AB41" t="n" s="11">
-        <v>255.313</v>
+        <v>255.367</v>
       </c>
       <c r="AC41" t="n" s="11">
-        <v>255.224</v>
+        <v>255.244</v>
       </c>
       <c r="AD41" t="n" s="11">
-        <v>256.427</v>
+        <v>256.357</v>
       </c>
       <c r="AE41" t="n" s="11">
-        <v>258.175</v>
+        <v>258.195</v>
       </c>
       <c r="AF41" t="n" s="11">
-        <v>260.02</v>
+        <v>260.03</v>
       </c>
       <c r="AG41" t="n" s="11">
-        <v>262.039</v>
+        <v>262.038</v>
       </c>
       <c r="AH41" t="n" s="11">
         <v>264.108</v>
       </c>
       <c r="AI41" t="n" s="11">
-        <v>264.937</v>
+        <v>264.936</v>
       </c>
       <c r="AJ41" t="n" s="11">
-        <v>267.82</v>
+        <v>267.819</v>
       </c>
       <c r="AK41" t="n" s="11">
         <v>269.799</v>
@@ -15951,183 +15948,183 @@
         <v>400.379</v>
       </c>
       <c r="CZ41" t="n" s="11">
-        <v>403.556</v>
+        <v>403.557</v>
       </c>
       <c r="DA41" t="n" s="11">
-        <v>408.067</v>
+        <v>408.068</v>
       </c>
       <c r="DB41" t="n" s="11">
         <v>412.42</v>
       </c>
       <c r="DC41" t="n" s="11">
-        <v>416.993</v>
+        <v>416.979</v>
       </c>
       <c r="DD41" t="n" s="11">
         <v>421.708</v>
       </c>
       <c r="DE41" t="n" s="11">
-        <v>425.857</v>
+        <v>425.885</v>
       </c>
       <c r="DF41" t="n" s="11">
-        <v>431.159</v>
+        <v>431.211</v>
       </c>
       <c r="DG41" t="n" s="11">
-        <v>435.626</v>
+        <v>435.441</v>
       </c>
       <c r="DH41" t="n" s="11">
-        <v>440.858</v>
+        <v>440.998</v>
       </c>
       <c r="DI41" t="n" s="11">
-        <v>445.935</v>
+        <v>446.023</v>
       </c>
       <c r="DJ41" t="n" s="11">
-        <v>450.468</v>
+        <v>450.411</v>
       </c>
       <c r="DK41" t="n" s="11">
-        <v>455.828</v>
+        <v>455.164</v>
       </c>
       <c r="DL41" t="n" s="11">
-        <v>464.32</v>
+        <v>465.494</v>
       </c>
       <c r="DM41" t="n" s="11">
-        <v>466.945</v>
+        <v>466.624</v>
       </c>
       <c r="DN41" t="n" s="11">
-        <v>467.502</v>
+        <v>466.964</v>
       </c>
       <c r="DO41" t="n" s="11">
-        <v>467.981</v>
+        <v>466.997</v>
       </c>
       <c r="DP41" t="n" s="11">
-        <v>452.132</v>
+        <v>455.154</v>
       </c>
       <c r="DQ41" t="n" s="11">
-        <v>463.207</v>
+        <v>461.866</v>
       </c>
       <c r="DR41" t="n" s="11">
-        <v>468.398</v>
+        <v>467.398</v>
       </c>
       <c r="DS41" t="n" s="11">
-        <v>466.323</v>
+        <v>465.431</v>
       </c>
       <c r="DT41" t="n" s="11">
-        <v>476.209</v>
+        <v>480.276</v>
       </c>
       <c r="DU41" t="n" s="11">
-        <v>483.157</v>
-      </c>
-      <c r="DV41" t="s" s="11">
-        <v>43</v>
+        <v>483.915</v>
+      </c>
+      <c r="DV41" t="n" s="11">
+        <v>490.902</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="10">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B42" t="s" s="14">
         <v>42</v>
       </c>
       <c r="C42" t="n" s="11">
-        <v>36.35</v>
+        <v>36.329</v>
       </c>
       <c r="D42" t="n" s="11">
-        <v>38.48</v>
+        <v>38.561</v>
       </c>
       <c r="E42" t="n" s="11">
-        <v>38.399</v>
+        <v>38.496</v>
       </c>
       <c r="F42" t="n" s="11">
-        <v>39.395</v>
+        <v>39.221</v>
       </c>
       <c r="G42" t="n" s="11">
-        <v>40.03</v>
+        <v>39.979</v>
       </c>
       <c r="H42" t="n" s="11">
-        <v>40.683</v>
+        <v>40.8</v>
       </c>
       <c r="I42" t="n" s="11">
-        <v>42.088</v>
+        <v>42.223</v>
       </c>
       <c r="J42" t="n" s="11">
-        <v>42.807</v>
+        <v>42.596</v>
       </c>
       <c r="K42" t="n" s="11">
-        <v>40.513</v>
+        <v>40.442</v>
       </c>
       <c r="L42" t="n" s="11">
-        <v>41.97</v>
+        <v>42.134</v>
       </c>
       <c r="M42" t="n" s="11">
-        <v>42.053</v>
+        <v>42.21</v>
       </c>
       <c r="N42" t="n" s="11">
-        <v>43.171</v>
+        <v>42.857</v>
       </c>
       <c r="O42" t="n" s="11">
-        <v>43.852</v>
+        <v>43.873</v>
       </c>
       <c r="P42" t="n" s="11">
-        <v>44.523</v>
+        <v>44.691</v>
       </c>
       <c r="Q42" t="n" s="11">
-        <v>44.889</v>
+        <v>45.069</v>
       </c>
       <c r="R42" t="n" s="11">
-        <v>46.207</v>
+        <v>45.725</v>
       </c>
       <c r="S42" t="n" s="11">
-        <v>46.182</v>
+        <v>46.339</v>
       </c>
       <c r="T42" t="n" s="11">
-        <v>47.126</v>
+        <v>47.293</v>
       </c>
       <c r="U42" t="n" s="11">
-        <v>47.712</v>
+        <v>47.885</v>
       </c>
       <c r="V42" t="n" s="11">
-        <v>48.563</v>
+        <v>48.066</v>
       </c>
       <c r="W42" t="n" s="11">
-        <v>47.094</v>
+        <v>47.266</v>
       </c>
       <c r="X42" t="n" s="11">
-        <v>47.195</v>
+        <v>47.325</v>
       </c>
       <c r="Y42" t="n" s="11">
-        <v>47.703</v>
+        <v>47.791</v>
       </c>
       <c r="Z42" t="n" s="11">
-        <v>48.582</v>
+        <v>48.313</v>
       </c>
       <c r="AA42" t="n" s="11">
-        <v>48.853</v>
+        <v>48.942</v>
       </c>
       <c r="AB42" t="n" s="11">
-        <v>48.957</v>
+        <v>49.011</v>
       </c>
       <c r="AC42" t="n" s="11">
-        <v>49.01</v>
+        <v>49.03</v>
       </c>
       <c r="AD42" t="n" s="11">
-        <v>49.367</v>
+        <v>49.297</v>
       </c>
       <c r="AE42" t="n" s="11">
-        <v>49.536</v>
+        <v>49.556</v>
       </c>
       <c r="AF42" t="n" s="11">
-        <v>50.033</v>
+        <v>50.043</v>
       </c>
       <c r="AG42" t="n" s="11">
-        <v>50.43</v>
+        <v>50.429</v>
       </c>
       <c r="AH42" t="n" s="11">
         <v>51.089</v>
       </c>
       <c r="AI42" t="n" s="11">
-        <v>50.759</v>
+        <v>50.758</v>
       </c>
       <c r="AJ42" t="n" s="11">
-        <v>51.215</v>
+        <v>51.214</v>
       </c>
       <c r="AK42" t="n" s="11">
         <v>51.687</v>
@@ -16331,78 +16328,78 @@
         <v>70.992</v>
       </c>
       <c r="CZ42" t="n" s="11">
-        <v>71.425</v>
+        <v>71.426</v>
       </c>
       <c r="DA42" t="n" s="11">
-        <v>72.293</v>
+        <v>72.294</v>
       </c>
       <c r="DB42" t="n" s="11">
         <v>72.88</v>
       </c>
       <c r="DC42" t="n" s="11">
-        <v>74.008</v>
+        <v>73.994</v>
       </c>
       <c r="DD42" t="n" s="11">
         <v>74.968</v>
       </c>
       <c r="DE42" t="n" s="11">
-        <v>75.479</v>
+        <v>75.507</v>
       </c>
       <c r="DF42" t="n" s="11">
-        <v>76.484</v>
+        <v>76.536</v>
       </c>
       <c r="DG42" t="n" s="11">
-        <v>76.388</v>
+        <v>76.203</v>
       </c>
       <c r="DH42" t="n" s="11">
-        <v>77.045</v>
+        <v>77.185</v>
       </c>
       <c r="DI42" t="n" s="11">
-        <v>78.297</v>
+        <v>78.385</v>
       </c>
       <c r="DJ42" t="n" s="11">
-        <v>79.518</v>
+        <v>79.459</v>
       </c>
       <c r="DK42" t="n" s="11">
-        <v>82.033</v>
+        <v>81.373</v>
       </c>
       <c r="DL42" t="n" s="11">
-        <v>80.731</v>
+        <v>81.925</v>
       </c>
       <c r="DM42" t="n" s="11">
-        <v>83.76</v>
+        <v>83.511</v>
       </c>
       <c r="DN42" t="n" s="11">
-        <v>85.359</v>
+        <v>84.763</v>
       </c>
       <c r="DO42" t="n" s="11">
-        <v>84.718</v>
+        <v>83.578</v>
       </c>
       <c r="DP42" t="n" s="11">
-        <v>80.727</v>
+        <v>83.638</v>
       </c>
       <c r="DQ42" t="n" s="11">
-        <v>85.323</v>
+        <v>84.491</v>
       </c>
       <c r="DR42" t="n" s="11">
-        <v>87.43</v>
+        <v>86.491</v>
       </c>
       <c r="DS42" t="n" s="11">
-        <v>86.883</v>
+        <v>85.613</v>
       </c>
       <c r="DT42" t="n" s="11">
-        <v>83.15</v>
+        <v>86.732</v>
       </c>
       <c r="DU42" t="n" s="11">
-        <v>87.857</v>
-      </c>
-      <c r="DV42" t="s" s="11">
-        <v>43</v>
+        <v>87.268</v>
+      </c>
+      <c r="DV42" t="n" s="11">
+        <v>89.888</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="10">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B43" t="s" s="14">
         <v>42</v>
@@ -16741,48 +16738,48 @@
         <v>367.638</v>
       </c>
       <c r="DJ43" t="n" s="11">
-        <v>370.95</v>
+        <v>370.952</v>
       </c>
       <c r="DK43" t="n" s="11">
-        <v>373.795</v>
+        <v>373.791</v>
       </c>
       <c r="DL43" t="n" s="11">
-        <v>383.589</v>
+        <v>383.569</v>
       </c>
       <c r="DM43" t="n" s="11">
-        <v>383.185</v>
+        <v>383.113</v>
       </c>
       <c r="DN43" t="n" s="11">
-        <v>382.143</v>
+        <v>382.201</v>
       </c>
       <c r="DO43" t="n" s="11">
-        <v>383.263</v>
+        <v>383.419</v>
       </c>
       <c r="DP43" t="n" s="11">
-        <v>371.405</v>
+        <v>371.516</v>
       </c>
       <c r="DQ43" t="n" s="11">
-        <v>377.884</v>
+        <v>377.375</v>
       </c>
       <c r="DR43" t="n" s="11">
-        <v>380.968</v>
+        <v>380.907</v>
       </c>
       <c r="DS43" t="n" s="11">
-        <v>379.44</v>
+        <v>379.818</v>
       </c>
       <c r="DT43" t="n" s="11">
-        <v>393.059</v>
+        <v>393.544</v>
       </c>
       <c r="DU43" t="n" s="11">
-        <v>395.3</v>
-      </c>
-      <c r="DV43" t="s" s="11">
-        <v>43</v>
+        <v>396.647</v>
+      </c>
+      <c r="DV43" t="n" s="11">
+        <v>401.014</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="10">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B44" t="s" s="14">
         <v>42</v>
@@ -17118,51 +17115,51 @@
         <v>121.037</v>
       </c>
       <c r="DI44" t="n" s="11">
-        <v>122.297</v>
+        <v>122.301</v>
       </c>
       <c r="DJ44" t="n" s="11">
-        <v>123.031</v>
+        <v>123.042</v>
       </c>
       <c r="DK44" t="n" s="11">
-        <v>123.085</v>
+        <v>123.087</v>
       </c>
       <c r="DL44" t="n" s="11">
-        <v>126.557</v>
+        <v>126.414</v>
       </c>
       <c r="DM44" t="n" s="11">
-        <v>126.035</v>
+        <v>126.013</v>
       </c>
       <c r="DN44" t="n" s="11">
-        <v>126.039</v>
+        <v>126.328</v>
       </c>
       <c r="DO44" t="n" s="11">
-        <v>125.791</v>
+        <v>126.372</v>
       </c>
       <c r="DP44" t="n" s="11">
-        <v>121.213</v>
+        <v>119.549</v>
       </c>
       <c r="DQ44" t="n" s="11">
-        <v>122.709</v>
+        <v>123.067</v>
       </c>
       <c r="DR44" t="n" s="11">
-        <v>122.924</v>
+        <v>123.646</v>
       </c>
       <c r="DS44" t="n" s="11">
-        <v>122.769</v>
+        <v>123.896</v>
       </c>
       <c r="DT44" t="n" s="11">
-        <v>126.647</v>
+        <v>123.814</v>
       </c>
       <c r="DU44" t="n" s="11">
-        <v>127.937</v>
-      </c>
-      <c r="DV44" t="s" s="11">
-        <v>43</v>
+        <v>128.787</v>
+      </c>
+      <c r="DV44" t="n" s="11">
+        <v>130.338</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="10">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B45" t="s" s="14">
         <v>42</v>
@@ -17498,51 +17495,51 @@
         <v>242.776</v>
       </c>
       <c r="DI45" t="n" s="11">
-        <v>245.341</v>
+        <v>245.337</v>
       </c>
       <c r="DJ45" t="n" s="11">
-        <v>247.919</v>
+        <v>247.91</v>
       </c>
       <c r="DK45" t="n" s="11">
-        <v>250.71</v>
+        <v>250.704</v>
       </c>
       <c r="DL45" t="n" s="11">
-        <v>257.032</v>
+        <v>257.155</v>
       </c>
       <c r="DM45" t="n" s="11">
-        <v>257.15</v>
+        <v>257.1</v>
       </c>
       <c r="DN45" t="n" s="11">
-        <v>256.104</v>
+        <v>255.873</v>
       </c>
       <c r="DO45" t="n" s="11">
-        <v>257.472</v>
+        <v>257.047</v>
       </c>
       <c r="DP45" t="n" s="11">
-        <v>250.192</v>
+        <v>251.967</v>
       </c>
       <c r="DQ45" t="n" s="11">
-        <v>255.175</v>
+        <v>254.308</v>
       </c>
       <c r="DR45" t="n" s="11">
-        <v>258.044</v>
+        <v>257.261</v>
       </c>
       <c r="DS45" t="n" s="11">
-        <v>256.671</v>
+        <v>255.922</v>
       </c>
       <c r="DT45" t="n" s="11">
-        <v>266.412</v>
+        <v>269.73</v>
       </c>
       <c r="DU45" t="n" s="11">
-        <v>267.363</v>
-      </c>
-      <c r="DV45" t="s" s="11">
-        <v>43</v>
+        <v>267.86</v>
+      </c>
+      <c r="DV45" t="n" s="11">
+        <v>270.676</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="10">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B46" t="s" s="14">
         <v>42</v>
@@ -17875,54 +17872,54 @@
         <v>143.815</v>
       </c>
       <c r="DH46" t="n" s="11">
-        <v>144.52</v>
+        <v>144.522</v>
       </c>
       <c r="DI46" t="n" s="11">
-        <v>145.856</v>
+        <v>145.86</v>
       </c>
       <c r="DJ46" t="n" s="11">
-        <v>147.607</v>
+        <v>147.608</v>
       </c>
       <c r="DK46" t="n" s="11">
-        <v>149.841</v>
+        <v>149.798</v>
       </c>
       <c r="DL46" t="n" s="11">
-        <v>150.822</v>
+        <v>150.845</v>
       </c>
       <c r="DM46" t="n" s="11">
-        <v>153.037</v>
+        <v>153.175</v>
       </c>
       <c r="DN46" t="n" s="11">
-        <v>155.575</v>
+        <v>155.697</v>
       </c>
       <c r="DO46" t="n" s="11">
-        <v>159.06</v>
+        <v>158.347</v>
       </c>
       <c r="DP46" t="n" s="11">
-        <v>163.852</v>
+        <v>164.132</v>
       </c>
       <c r="DQ46" t="n" s="11">
-        <v>167.093</v>
+        <v>167.607</v>
       </c>
       <c r="DR46" t="n" s="11">
-        <v>168.933</v>
+        <v>168.987</v>
       </c>
       <c r="DS46" t="n" s="11">
-        <v>172.492</v>
+        <v>170.929</v>
       </c>
       <c r="DT46" t="n" s="11">
-        <v>168.864</v>
+        <v>169.061</v>
       </c>
       <c r="DU46" t="n" s="11">
-        <v>166.062</v>
-      </c>
-      <c r="DV46" t="s" s="11">
-        <v>43</v>
+        <v>166.39</v>
+      </c>
+      <c r="DV46" t="n" s="11">
+        <v>167.51</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="10">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B47" t="s" s="14">
         <v>42</v>
@@ -18246,7 +18243,7 @@
         <v>30.718</v>
       </c>
       <c r="DE47" t="n" s="11">
-        <v>30.903</v>
+        <v>30.902</v>
       </c>
       <c r="DF47" t="n" s="11">
         <v>31.215</v>
@@ -18255,54 +18252,54 @@
         <v>31.518</v>
       </c>
       <c r="DH47" t="n" s="11">
-        <v>31.609</v>
+        <v>31.615</v>
       </c>
       <c r="DI47" t="n" s="11">
-        <v>31.971</v>
+        <v>31.972</v>
       </c>
       <c r="DJ47" t="n" s="11">
-        <v>32.377</v>
+        <v>32.365</v>
       </c>
       <c r="DK47" t="n" s="11">
-        <v>33.017</v>
+        <v>32.993</v>
       </c>
       <c r="DL47" t="n" s="11">
-        <v>33.672</v>
+        <v>33.74</v>
       </c>
       <c r="DM47" t="n" s="11">
-        <v>33.894</v>
+        <v>33.884</v>
       </c>
       <c r="DN47" t="n" s="11">
-        <v>34.489</v>
+        <v>34.455</v>
       </c>
       <c r="DO47" t="n" s="11">
-        <v>34.654</v>
+        <v>34.56</v>
       </c>
       <c r="DP47" t="n" s="11">
-        <v>34.586</v>
+        <v>34.73</v>
       </c>
       <c r="DQ47" t="n" s="11">
-        <v>35.609</v>
+        <v>35.606</v>
       </c>
       <c r="DR47" t="n" s="11">
-        <v>35.42</v>
+        <v>35.374</v>
       </c>
       <c r="DS47" t="n" s="11">
-        <v>35.838</v>
+        <v>35.689</v>
       </c>
       <c r="DT47" t="n" s="11">
-        <v>35.732</v>
+        <v>35.855</v>
       </c>
       <c r="DU47" t="n" s="11">
-        <v>35.308</v>
-      </c>
-      <c r="DV47" t="s" s="11">
-        <v>43</v>
+        <v>35.262</v>
+      </c>
+      <c r="DV47" t="n" s="11">
+        <v>35.659</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="10">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B48" t="s" s="14">
         <v>42</v>
@@ -18626,7 +18623,7 @@
         <v>341.7</v>
       </c>
       <c r="DE48" t="n" s="11">
-        <v>344.832</v>
+        <v>344.833</v>
       </c>
       <c r="DF48" t="n" s="11">
         <v>348.73</v>
@@ -18635,54 +18632,54 @@
         <v>352.026</v>
       </c>
       <c r="DH48" t="n" s="11">
-        <v>355.687</v>
+        <v>355.683</v>
       </c>
       <c r="DI48" t="n" s="11">
-        <v>359.226</v>
+        <v>359.225</v>
       </c>
       <c r="DJ48" t="n" s="11">
-        <v>363.149</v>
+        <v>363.153</v>
       </c>
       <c r="DK48" t="n" s="11">
-        <v>367.534</v>
+        <v>367.509</v>
       </c>
       <c r="DL48" t="n" s="11">
-        <v>374.182</v>
+        <v>374.26</v>
       </c>
       <c r="DM48" t="n" s="11">
-        <v>376.293</v>
+        <v>376.391</v>
       </c>
       <c r="DN48" t="n" s="11">
-        <v>377.19</v>
+        <v>377.115</v>
       </c>
       <c r="DO48" t="n" s="11">
-        <v>381.878</v>
+        <v>380.834</v>
       </c>
       <c r="DP48" t="n" s="11">
-        <v>379.458</v>
+        <v>381.369</v>
       </c>
       <c r="DQ48" t="n" s="11">
-        <v>386.659</v>
+        <v>386.309</v>
       </c>
       <c r="DR48" t="n" s="11">
-        <v>391.557</v>
+        <v>390.874</v>
       </c>
       <c r="DS48" t="n" s="11">
-        <v>393.325</v>
+        <v>391.162</v>
       </c>
       <c r="DT48" t="n" s="11">
-        <v>399.544</v>
+        <v>402.936</v>
       </c>
       <c r="DU48" t="n" s="11">
-        <v>398.117</v>
-      </c>
-      <c r="DV48" t="s" s="11">
-        <v>43</v>
+        <v>398.988</v>
+      </c>
+      <c r="DV48" t="n" s="11">
+        <v>402.527</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="10">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B49" t="s" s="14">
         <v>42</v>
@@ -19006,63 +19003,63 @@
         <v>141.266</v>
       </c>
       <c r="DE49" t="n" s="11">
-        <v>145.125</v>
+        <v>145.126</v>
       </c>
       <c r="DF49" t="n" s="11">
-        <v>144.745</v>
+        <v>144.747</v>
       </c>
       <c r="DG49" t="n" s="11">
-        <v>148.876</v>
+        <v>148.877</v>
       </c>
       <c r="DH49" t="n" s="11">
-        <v>147.919</v>
+        <v>147.893</v>
       </c>
       <c r="DI49" t="n" s="11">
-        <v>145.941</v>
+        <v>145.942</v>
       </c>
       <c r="DJ49" t="n" s="11">
-        <v>145.707</v>
+        <v>145.758</v>
       </c>
       <c r="DK49" t="n" s="11">
-        <v>140.155</v>
+        <v>140.239</v>
       </c>
       <c r="DL49" t="n" s="11">
-        <v>142.82</v>
+        <v>142.459</v>
       </c>
       <c r="DM49" t="n" s="11">
-        <v>140.799</v>
+        <v>140.908</v>
       </c>
       <c r="DN49" t="n" s="11">
-        <v>140.325</v>
+        <v>140.624</v>
       </c>
       <c r="DO49" t="n" s="11">
-        <v>141.361</v>
+        <v>141.581</v>
       </c>
       <c r="DP49" t="n" s="11">
-        <v>127.357</v>
+        <v>126.406</v>
       </c>
       <c r="DQ49" t="n" s="11">
-        <v>130.655</v>
+        <v>130.978</v>
       </c>
       <c r="DR49" t="n" s="11">
-        <v>127.894</v>
+        <v>128.487</v>
       </c>
       <c r="DS49" t="n" s="11">
-        <v>125.607</v>
+        <v>126.221</v>
       </c>
       <c r="DT49" t="n" s="11">
-        <v>129.628</v>
+        <v>128.496</v>
       </c>
       <c r="DU49" t="n" s="11">
-        <v>140.017</v>
-      </c>
-      <c r="DV49" t="s" s="11">
-        <v>43</v>
+        <v>136.136</v>
+      </c>
+      <c r="DV49" t="n" s="11">
+        <v>137.804</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="10">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B50" t="s" s="14">
         <v>42</v>
@@ -19359,90 +19356,90 @@
         <v>-21.163</v>
       </c>
       <c r="CV50" t="n" s="11">
-        <v>-19.98</v>
+        <v>-19.979</v>
       </c>
       <c r="CW50" t="n" s="11">
-        <v>-21.894</v>
+        <v>-21.895</v>
       </c>
       <c r="CX50" t="n" s="11">
-        <v>-21.749</v>
+        <v>-21.765</v>
       </c>
       <c r="CY50" t="n" s="11">
-        <v>-21.413</v>
+        <v>-21.415</v>
       </c>
       <c r="CZ50" t="n" s="11">
-        <v>-22.616</v>
+        <v>-22.548</v>
       </c>
       <c r="DA50" t="n" s="11">
-        <v>-22.012</v>
+        <v>-21.964</v>
       </c>
       <c r="DB50" t="n" s="11">
-        <v>-23.24</v>
+        <v>-23.492</v>
       </c>
       <c r="DC50" t="n" s="11">
-        <v>-24.465</v>
+        <v>-24.587</v>
       </c>
       <c r="DD50" t="n" s="11">
-        <v>-26.51</v>
+        <v>-25.844</v>
       </c>
       <c r="DE50" t="n" s="11">
-        <v>-25.712</v>
+        <v>-25.792</v>
       </c>
       <c r="DF50" t="n" s="11">
-        <v>-24.754</v>
+        <v>-25.481</v>
       </c>
       <c r="DG50" t="n" s="11">
-        <v>-23.824</v>
+        <v>-24.311</v>
       </c>
       <c r="DH50" t="n" s="11">
-        <v>-31.006</v>
+        <v>-28.736</v>
       </c>
       <c r="DI50" t="n" s="11">
-        <v>-22.906</v>
+        <v>-23.654</v>
       </c>
       <c r="DJ50" t="n" s="11">
-        <v>-20.482</v>
+        <v>-22.317</v>
       </c>
       <c r="DK50" t="n" s="11">
-        <v>-18.794</v>
+        <v>-19.786</v>
       </c>
       <c r="DL50" t="n" s="11">
-        <v>-40.669</v>
+        <v>-34.718</v>
       </c>
       <c r="DM50" t="n" s="11">
-        <v>-21.437</v>
+        <v>-24.233</v>
       </c>
       <c r="DN50" t="n" s="11">
-        <v>-17.406</v>
+        <v>-21.454</v>
       </c>
       <c r="DO50" t="n" s="11">
-        <v>-16.938</v>
+        <v>-16.66</v>
       </c>
       <c r="DP50" t="n" s="11">
-        <v>-43.797</v>
+        <v>-35.198</v>
       </c>
       <c r="DQ50" t="n" s="11">
-        <v>-17.273</v>
+        <v>-22.231</v>
       </c>
       <c r="DR50" t="n" s="11">
-        <v>-13.218</v>
+        <v>-18.6</v>
       </c>
       <c r="DS50" t="n" s="11">
-        <v>-14.594</v>
+        <v>-12.762</v>
       </c>
       <c r="DT50" t="n" s="11">
-        <v>-49.993</v>
+        <v>-42.025</v>
       </c>
       <c r="DU50" t="n" s="11">
-        <v>-24.758</v>
-      </c>
-      <c r="DV50" t="s" s="11">
-        <v>43</v>
+        <v>-29.974</v>
+      </c>
+      <c r="DV50" t="n" s="11">
+        <v>-27.666</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="10">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B51" t="s" s="14">
         <v>42</v>
@@ -19739,90 +19736,90 @@
         <v>425.451</v>
       </c>
       <c r="CV51" t="n" s="11">
-        <v>429.268</v>
+        <v>429.269</v>
       </c>
       <c r="CW51" t="n" s="11">
-        <v>433.187</v>
+        <v>433.186</v>
       </c>
       <c r="CX51" t="n" s="11">
-        <v>437.289</v>
+        <v>437.273</v>
       </c>
       <c r="CY51" t="n" s="11">
-        <v>440.335</v>
+        <v>440.333</v>
       </c>
       <c r="CZ51" t="n" s="11">
-        <v>445.337</v>
+        <v>445.405</v>
       </c>
       <c r="DA51" t="n" s="11">
-        <v>448.236</v>
+        <v>448.284</v>
       </c>
       <c r="DB51" t="n" s="11">
-        <v>452.569</v>
+        <v>452.317</v>
       </c>
       <c r="DC51" t="n" s="11">
-        <v>456.241</v>
+        <v>456.119</v>
       </c>
       <c r="DD51" t="n" s="11">
-        <v>456.456</v>
+        <v>457.122</v>
       </c>
       <c r="DE51" t="n" s="11">
-        <v>464.245</v>
+        <v>464.167</v>
       </c>
       <c r="DF51" t="n" s="11">
-        <v>468.721</v>
+        <v>467.996</v>
       </c>
       <c r="DG51" t="n" s="11">
-        <v>477.078</v>
+        <v>476.592</v>
       </c>
       <c r="DH51" t="n" s="11">
-        <v>472.6</v>
+        <v>474.84</v>
       </c>
       <c r="DI51" t="n" s="11">
-        <v>482.261</v>
+        <v>481.513</v>
       </c>
       <c r="DJ51" t="n" s="11">
-        <v>488.374</v>
+        <v>486.594</v>
       </c>
       <c r="DK51" t="n" s="11">
-        <v>488.895</v>
+        <v>487.962</v>
       </c>
       <c r="DL51" t="n" s="11">
-        <v>476.333</v>
+        <v>482.001</v>
       </c>
       <c r="DM51" t="n" s="11">
-        <v>495.655</v>
+        <v>493.066</v>
       </c>
       <c r="DN51" t="n" s="11">
-        <v>500.109</v>
+        <v>496.285</v>
       </c>
       <c r="DO51" t="n" s="11">
-        <v>506.301</v>
+        <v>505.755</v>
       </c>
       <c r="DP51" t="n" s="11">
-        <v>463.018</v>
+        <v>472.577</v>
       </c>
       <c r="DQ51" t="n" s="11">
-        <v>500.041</v>
+        <v>495.056</v>
       </c>
       <c r="DR51" t="n" s="11">
-        <v>506.233</v>
+        <v>500.761</v>
       </c>
       <c r="DS51" t="n" s="11">
-        <v>504.338</v>
+        <v>504.621</v>
       </c>
       <c r="DT51" t="n" s="11">
-        <v>479.179</v>
+        <v>489.407</v>
       </c>
       <c r="DU51" t="n" s="11">
-        <v>513.376</v>
-      </c>
-      <c r="DV51" t="s" s="11">
-        <v>43</v>
+        <v>505.15</v>
+      </c>
+      <c r="DV51" t="n" s="11">
+        <v>512.665</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="10">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B52" t="s" s="14">
         <v>42</v>
@@ -20119,90 +20116,90 @@
         <v>519.21</v>
       </c>
       <c r="CV52" t="n" s="11">
-        <v>524.388</v>
+        <v>524.389</v>
       </c>
       <c r="CW52" t="n" s="11">
-        <v>529.484</v>
+        <v>529.483</v>
       </c>
       <c r="CX52" t="n" s="11">
-        <v>535.437</v>
+        <v>535.421</v>
       </c>
       <c r="CY52" t="n" s="11">
-        <v>539.995</v>
+        <v>539.993</v>
       </c>
       <c r="CZ52" t="n" s="11">
-        <v>546.094</v>
+        <v>546.162</v>
       </c>
       <c r="DA52" t="n" s="11">
-        <v>550.019</v>
+        <v>550.067</v>
       </c>
       <c r="DB52" t="n" s="11">
-        <v>554.84</v>
+        <v>554.588</v>
       </c>
       <c r="DC52" t="n" s="11">
-        <v>559.501</v>
+        <v>559.379</v>
       </c>
       <c r="DD52" t="n" s="11">
-        <v>560.647</v>
+        <v>561.313</v>
       </c>
       <c r="DE52" t="n" s="11">
-        <v>569.371</v>
+        <v>569.293</v>
       </c>
       <c r="DF52" t="n" s="11">
-        <v>574.932</v>
+        <v>574.207</v>
       </c>
       <c r="DG52" t="n" s="11">
-        <v>583.484</v>
+        <v>582.998</v>
       </c>
       <c r="DH52" t="n" s="11">
-        <v>580.174</v>
+        <v>582.415</v>
       </c>
       <c r="DI52" t="n" s="11">
-        <v>590.391</v>
+        <v>589.643</v>
       </c>
       <c r="DJ52" t="n" s="11">
-        <v>597.677</v>
+        <v>595.897</v>
       </c>
       <c r="DK52" t="n" s="11">
-        <v>599.887</v>
+        <v>598.931</v>
       </c>
       <c r="DL52" t="n" s="11">
-        <v>589.566</v>
+        <v>595.29</v>
       </c>
       <c r="DM52" t="n" s="11">
-        <v>609.259</v>
+        <v>606.677</v>
       </c>
       <c r="DN52" t="n" s="11">
-        <v>615.146</v>
+        <v>611.299</v>
       </c>
       <c r="DO52" t="n" s="11">
-        <v>623.092</v>
+        <v>622.093</v>
       </c>
       <c r="DP52" t="n" s="11">
-        <v>578.328</v>
+        <v>588.817</v>
       </c>
       <c r="DQ52" t="n" s="11">
-        <v>619.498</v>
+        <v>613.999</v>
       </c>
       <c r="DR52" t="n" s="11">
-        <v>626.609</v>
+        <v>621.106</v>
       </c>
       <c r="DS52" t="n" s="11">
-        <v>625.198</v>
+        <v>626.469</v>
       </c>
       <c r="DT52" t="n" s="11">
-        <v>605.816</v>
+        <v>621.553</v>
       </c>
       <c r="DU52" t="n" s="11">
-        <v>640.027</v>
-      </c>
-      <c r="DV52" t="s" s="11">
-        <v>43</v>
+        <v>634.976</v>
+      </c>
+      <c r="DV52" t="n" s="11">
+        <v>645.172</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="10">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B53" t="s" s="14">
         <v>42</v>
@@ -20529,7 +20526,7 @@
         <v>15.159</v>
       </c>
       <c r="DF53" t="n" s="11">
-        <v>15.442</v>
+        <v>15.443</v>
       </c>
       <c r="DG53" t="n" s="11">
         <v>14.046</v>
@@ -20547,42 +20544,42 @@
         <v>15.14</v>
       </c>
       <c r="DL53" t="n" s="11">
-        <v>15.435</v>
+        <v>15.434</v>
       </c>
       <c r="DM53" t="n" s="11">
         <v>15.481</v>
       </c>
       <c r="DN53" t="n" s="11">
-        <v>15.487</v>
+        <v>15.489</v>
       </c>
       <c r="DO53" t="n" s="11">
-        <v>14.953</v>
+        <v>14.952</v>
       </c>
       <c r="DP53" t="n" s="11">
-        <v>14.902</v>
+        <v>14.907</v>
       </c>
       <c r="DQ53" t="n" s="11">
-        <v>14.96</v>
+        <v>14.958</v>
       </c>
       <c r="DR53" t="n" s="11">
-        <v>14.989</v>
+        <v>15.001</v>
       </c>
       <c r="DS53" t="n" s="11">
-        <v>15.187</v>
+        <v>15.186</v>
       </c>
       <c r="DT53" t="n" s="11">
-        <v>15.178</v>
+        <v>15.191</v>
       </c>
       <c r="DU53" t="n" s="11">
-        <v>15.234</v>
-      </c>
-      <c r="DV53" t="s" s="11">
-        <v>43</v>
+        <v>15.212</v>
+      </c>
+      <c r="DV53" t="n" s="11">
+        <v>15.24</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="10">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B54" t="s" s="14">
         <v>42</v>
@@ -20879,90 +20876,90 @@
         <v>43.16</v>
       </c>
       <c r="CV54" t="n" s="11">
-        <v>45.018</v>
+        <v>45.019</v>
       </c>
       <c r="CW54" t="n" s="11">
-        <v>45.298</v>
+        <v>45.297</v>
       </c>
       <c r="CX54" t="n" s="11">
-        <v>46.38</v>
+        <v>46.364</v>
       </c>
       <c r="CY54" t="n" s="11">
-        <v>46.326</v>
+        <v>46.324</v>
       </c>
       <c r="CZ54" t="n" s="11">
-        <v>46.357</v>
+        <v>46.425</v>
       </c>
       <c r="DA54" t="n" s="11">
-        <v>47.718</v>
+        <v>47.766</v>
       </c>
       <c r="DB54" t="n" s="11">
-        <v>48.44</v>
+        <v>48.188</v>
       </c>
       <c r="DC54" t="n" s="11">
-        <v>49.885</v>
+        <v>49.763</v>
       </c>
       <c r="DD54" t="n" s="11">
-        <v>48.163</v>
+        <v>48.829</v>
       </c>
       <c r="DE54" t="n" s="11">
-        <v>51.274</v>
+        <v>51.201</v>
       </c>
       <c r="DF54" t="n" s="11">
-        <v>54.384</v>
+        <v>53.672</v>
       </c>
       <c r="DG54" t="n" s="11">
-        <v>56.528</v>
+        <v>56.048</v>
       </c>
       <c r="DH54" t="n" s="11">
-        <v>50.277</v>
+        <v>52.366</v>
       </c>
       <c r="DI54" t="n" s="11">
-        <v>58.367</v>
+        <v>57.623</v>
       </c>
       <c r="DJ54" t="n" s="11">
-        <v>59.793</v>
+        <v>58.316</v>
       </c>
       <c r="DK54" t="n" s="11">
-        <v>57.526</v>
+        <v>57.158</v>
       </c>
       <c r="DL54" t="n" s="11">
-        <v>43.427</v>
+        <v>47.14</v>
       </c>
       <c r="DM54" t="n" s="11">
-        <v>57.434</v>
+        <v>55.731</v>
       </c>
       <c r="DN54" t="n" s="11">
-        <v>61.64</v>
+        <v>59.13</v>
       </c>
       <c r="DO54" t="n" s="11">
-        <v>69.3</v>
+        <v>69.653</v>
       </c>
       <c r="DP54" t="n" s="11">
-        <v>87.255</v>
+        <v>91.746</v>
       </c>
       <c r="DQ54" t="n" s="11">
-        <v>78.119</v>
+        <v>75.721</v>
       </c>
       <c r="DR54" t="n" s="11">
-        <v>92.729</v>
+        <v>89.911</v>
       </c>
       <c r="DS54" t="n" s="11">
-        <v>99.043</v>
+        <v>99.741</v>
       </c>
       <c r="DT54" t="n" s="11">
-        <v>72.41</v>
+        <v>76.643</v>
       </c>
       <c r="DU54" t="n" s="11">
-        <v>67.555</v>
-      </c>
-      <c r="DV54" t="s" s="11">
-        <v>43</v>
+        <v>62.919</v>
+      </c>
+      <c r="DV54" t="n" s="11">
+        <v>71.498</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="10">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B55" t="s" s="14">
         <v>42</v>
@@ -21259,93 +21256,93 @@
         <v>439.764</v>
       </c>
       <c r="CV55" t="n" s="11">
-        <v>443.793</v>
+        <v>443.794</v>
       </c>
       <c r="CW55" t="n" s="11">
-        <v>447.709</v>
+        <v>447.708</v>
       </c>
       <c r="CX55" t="n" s="11">
-        <v>451.739</v>
+        <v>451.723</v>
       </c>
       <c r="CY55" t="n" s="11">
-        <v>454.458</v>
+        <v>454.456</v>
       </c>
       <c r="CZ55" t="n" s="11">
-        <v>459.338</v>
+        <v>459.406</v>
       </c>
       <c r="DA55" t="n" s="11">
-        <v>462.309</v>
+        <v>462.357</v>
       </c>
       <c r="DB55" t="n" s="11">
-        <v>467.037</v>
+        <v>466.785</v>
       </c>
       <c r="DC55" t="n" s="11">
-        <v>471.252</v>
+        <v>471.13</v>
       </c>
       <c r="DD55" t="n" s="11">
-        <v>471.662</v>
+        <v>472.328</v>
       </c>
       <c r="DE55" t="n" s="11">
-        <v>479.404</v>
+        <v>479.326</v>
       </c>
       <c r="DF55" t="n" s="11">
-        <v>484.163</v>
+        <v>483.439</v>
       </c>
       <c r="DG55" t="n" s="11">
-        <v>491.124</v>
+        <v>490.638</v>
       </c>
       <c r="DH55" t="n" s="11">
-        <v>486.467</v>
+        <v>488.707</v>
       </c>
       <c r="DI55" t="n" s="11">
-        <v>496.245</v>
+        <v>495.497</v>
       </c>
       <c r="DJ55" t="n" s="11">
-        <v>502.748</v>
+        <v>500.968</v>
       </c>
       <c r="DK55" t="n" s="11">
-        <v>504.035</v>
+        <v>503.102</v>
       </c>
       <c r="DL55" t="n" s="11">
-        <v>491.768</v>
+        <v>497.435</v>
       </c>
       <c r="DM55" t="n" s="11">
-        <v>511.136</v>
+        <v>508.547</v>
       </c>
       <c r="DN55" t="n" s="11">
-        <v>515.596</v>
+        <v>511.774</v>
       </c>
       <c r="DO55" t="n" s="11">
-        <v>521.254</v>
+        <v>520.707</v>
       </c>
       <c r="DP55" t="n" s="11">
-        <v>477.92</v>
+        <v>487.484</v>
       </c>
       <c r="DQ55" t="n" s="11">
-        <v>515.001</v>
+        <v>510.014</v>
       </c>
       <c r="DR55" t="n" s="11">
-        <v>521.222</v>
+        <v>515.762</v>
       </c>
       <c r="DS55" t="n" s="11">
-        <v>519.525</v>
+        <v>519.807</v>
       </c>
       <c r="DT55" t="n" s="11">
-        <v>494.357</v>
+        <v>504.598</v>
       </c>
       <c r="DU55" t="n" s="11">
-        <v>528.61</v>
-      </c>
-      <c r="DV55" t="s" s="11">
-        <v>43</v>
+        <v>520.362</v>
+      </c>
+      <c r="DV55" t="n" s="11">
+        <v>527.905</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="10">
+        <v>57</v>
+      </c>
+      <c r="B56" t="s" s="14">
         <v>58</v>
-      </c>
-      <c r="B56" t="s" s="14">
-        <v>59</v>
       </c>
       <c r="C56" t="n" s="11">
         <v>12.5</v>
@@ -21657,87 +21654,87 @@
         <v>10.3</v>
       </c>
       <c r="DB56" t="n" s="11">
-        <v>10.4</v>
+        <v>10.3</v>
       </c>
       <c r="DC56" t="n" s="11">
         <v>10.6</v>
       </c>
       <c r="DD56" t="n" s="11">
-        <v>10.2</v>
+        <v>10.3</v>
       </c>
       <c r="DE56" t="n" s="11">
         <v>10.7</v>
       </c>
       <c r="DF56" t="n" s="11">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="DG56" t="n" s="11">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="DH56" t="n" s="11">
-        <v>10.3</v>
+        <v>10.7</v>
       </c>
       <c r="DI56" t="n" s="11">
-        <v>11.8</v>
+        <v>11.6</v>
       </c>
       <c r="DJ56" t="n" s="11">
-        <v>11.9</v>
+        <v>11.6</v>
       </c>
       <c r="DK56" t="n" s="11">
         <v>11.4</v>
       </c>
       <c r="DL56" t="n" s="11">
-        <v>8.8</v>
+        <v>9.5</v>
       </c>
       <c r="DM56" t="n" s="11">
-        <v>11.2</v>
+        <v>11.0</v>
       </c>
       <c r="DN56" t="n" s="11">
-        <v>12.0</v>
+        <v>11.6</v>
       </c>
       <c r="DO56" t="n" s="11">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="DP56" t="n" s="11">
-        <v>18.3</v>
+        <v>18.8</v>
       </c>
       <c r="DQ56" t="n" s="11">
+        <v>14.8</v>
+      </c>
+      <c r="DR56" t="n" s="11">
+        <v>17.4</v>
+      </c>
+      <c r="DS56" t="n" s="11">
+        <v>19.2</v>
+      </c>
+      <c r="DT56" t="n" s="11">
         <v>15.2</v>
       </c>
-      <c r="DR56" t="n" s="11">
-        <v>17.8</v>
-      </c>
-      <c r="DS56" t="n" s="11">
-        <v>19.1</v>
-      </c>
-      <c r="DT56" t="n" s="11">
-        <v>14.6</v>
-      </c>
       <c r="DU56" t="n" s="11">
-        <v>12.8</v>
-      </c>
-      <c r="DV56" t="s" s="11">
-        <v>43</v>
+        <v>12.1</v>
+      </c>
+      <c r="DV56" t="n" s="11">
+        <v>13.5</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="12">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="12">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="12">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="13">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -21784,7 +21781,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 28.12.21 / 09:49:01&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 01.04.22 / 03:18:16&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>